--- a/lab5/lab5_student_data.xlsx
+++ b/lab5/lab5_student_data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kangwonackr-my.sharepoint.com/personal/ysh0317_kangwon_ac_kr/Documents/연구실/lab5/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_FD6C45AAE56F2AC8B5FC9890E22D62B160BEBBE3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8DB1825-EF0B-BC47-8D6E-9CCD138E2CA8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -40,12 +34,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -53,15 +47,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -107,23 +94,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -165,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,27 +176,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,24 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,19 +385,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
@@ -481,16 +417,16 @@
         <v>201810130</v>
       </c>
       <c r="C2">
-        <v>471.55138798369421</v>
+        <v>471.5513879836942</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>12.886528218219389</v>
+        <v>12.64158058729075</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -501,16 +437,16 @@
         <v>201810574</v>
       </c>
       <c r="C3">
-        <v>723.36940139837691</v>
+        <v>723.3694013983769</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>13.182418266479139</v>
+        <v>12.79728415615544</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -521,16 +457,16 @@
         <v>201810806</v>
       </c>
       <c r="C4">
-        <v>653.70264177899344</v>
+        <v>653.7026417789934</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>19</v>
       </c>
       <c r="F4">
-        <v>13.668607262249649</v>
+        <v>10.66165007753535</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -541,16 +477,16 @@
         <v>201810859</v>
       </c>
       <c r="C5">
-        <v>603.98196462617227</v>
+        <v>603.9819646261723</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>15.49427226272797</v>
+        <v>19.5744889314632</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -561,16 +497,16 @@
         <v>201811217</v>
       </c>
       <c r="C6">
-        <v>510.63086183740131</v>
+        <v>510.6308618374013</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6">
-        <v>13.9333524822132</v>
+        <v>14.57582793537833</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -581,16 +517,16 @@
         <v>201811266</v>
       </c>
       <c r="C7">
-        <v>771.11847107426206</v>
+        <v>771.1184710742621</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>18.7047240994094</v>
+        <v>19.10695045005495</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -601,16 +537,16 @@
         <v>201811520</v>
       </c>
       <c r="C8">
-        <v>798.70547869972461</v>
+        <v>798.7054786997246</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>13.377021150952221</v>
+        <v>15.65550269508299</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -624,13 +560,13 @@
         <v>624.6451654243117</v>
       </c>
       <c r="D9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>14.311202350039389</v>
+        <v>14.11630442802261</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -644,13 +580,13 @@
         <v>890.7016891818937</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>15.48227237099009</v>
+        <v>14.60924625634064</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -661,16 +597,16 @@
         <v>201811933</v>
       </c>
       <c r="C11">
-        <v>663.09937807063807</v>
+        <v>936.8424036248023</v>
       </c>
       <c r="D11">
         <v>80</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>19.31906919121813</v>
+        <v>12.21271279414542</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -681,16 +617,16 @@
         <v>201811958</v>
       </c>
       <c r="C12">
-        <v>677.84144916881178</v>
+        <v>982.9381884064614</v>
       </c>
       <c r="D12">
         <v>98</v>
       </c>
       <c r="E12">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>23.3502967224942</v>
+        <v>14.90019781499613</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -704,13 +640,13 @@
         <v>740.3018168457354</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>17.001242131097658</v>
+        <v>12.36126663835429</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -721,16 +657,16 @@
         <v>201811989</v>
       </c>
       <c r="C14">
-        <v>767.03728590742026</v>
+        <v>767.0372859074203</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>15.31227983672774</v>
+        <v>15.28598199067626</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -744,13 +680,13 @@
         <v>588.7178114231848</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15">
-        <v>12.25516293163885</v>
+        <v>15.61549246878218</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -761,16 +697,16 @@
         <v>201812370</v>
       </c>
       <c r="C16">
-        <v>783.09379313460761</v>
+        <v>783.0937931346076</v>
       </c>
       <c r="D16">
         <v>44</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F16">
-        <v>12.59621752094893</v>
+        <v>12.24759207007479</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -781,16 +717,16 @@
         <v>201812418</v>
       </c>
       <c r="C17">
-        <v>698.66135881779655</v>
+        <v>698.6613588177966</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>22</v>
       </c>
       <c r="F17">
-        <v>15.31080924907295</v>
+        <v>14.92809549470665</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -801,16 +737,16 @@
         <v>201812874</v>
       </c>
       <c r="C18">
-        <v>597.79026942135874</v>
+        <v>597.7902694213587</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>13.23742263413067</v>
+        <v>13.63099378070638</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -821,16 +757,16 @@
         <v>201812907</v>
       </c>
       <c r="C19">
-        <v>720.72584239753769</v>
+        <v>720.7258423975377</v>
       </c>
       <c r="D19">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F19">
-        <v>14.48860817061035</v>
+        <v>15.2288751545647</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -841,16 +777,16 @@
         <v>201813059</v>
       </c>
       <c r="C20">
-        <v>751.38430275888766</v>
+        <v>751.3843027588877</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20">
-        <v>17.5903663565181</v>
+        <v>13.43598902012187</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -861,16 +797,16 @@
         <v>201813092</v>
       </c>
       <c r="C21">
-        <v>693.34302937501593</v>
+        <v>693.3430293750159</v>
       </c>
       <c r="D21">
         <v>57</v>
       </c>
       <c r="E21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21">
-        <v>16.21217154405144</v>
+        <v>12.48128303794812</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -881,16 +817,16 @@
         <v>201813265</v>
       </c>
       <c r="C22">
-        <v>639.74970375796681</v>
+        <v>639.7497037579668</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>15.4049244560138</v>
+        <v>14.32097311100365</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -901,16 +837,16 @@
         <v>201813304</v>
       </c>
       <c r="C23">
-        <v>651.03599649929208</v>
+        <v>651.0359964992921</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F23">
-        <v>15.837635591074619</v>
+        <v>15.17886013440779</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -921,16 +857,16 @@
         <v>201813727</v>
       </c>
       <c r="C24">
-        <v>899.43199700990112</v>
+        <v>899.4319970099011</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F24">
-        <v>12.28695476328698</v>
+        <v>15.97918211563798</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -941,16 +877,16 @@
         <v>201813850</v>
       </c>
       <c r="C25">
-        <v>647.64466012712717</v>
+        <v>647.6446601271272</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>11.84570596682633</v>
+        <v>12.78500460948205</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -961,16 +897,16 @@
         <v>201813886</v>
       </c>
       <c r="C26">
-        <v>560.86451276630532</v>
+        <v>560.8645127663053</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E26">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F26">
-        <v>14.57850215488256</v>
+        <v>12.88652821821939</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -981,16 +917,16 @@
         <v>201814161</v>
       </c>
       <c r="C27">
-        <v>507.55610205411188</v>
+        <v>507.5561020541119</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E27">
         <v>20</v>
       </c>
       <c r="F27">
-        <v>14.379872589847819</v>
+        <v>17.95173823931248</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1001,16 +937,16 @@
         <v>201814437</v>
       </c>
       <c r="C28">
-        <v>659.51264685710237</v>
+        <v>659.5126468571024</v>
       </c>
       <c r="D28">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F28">
-        <v>12.78500460948205</v>
+        <v>13.9333524822132</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1021,16 +957,16 @@
         <v>201814487</v>
       </c>
       <c r="C29">
-        <v>710.05955476087559</v>
+        <v>710.0595547608756</v>
       </c>
       <c r="D29">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29">
-        <v>16.71485516824221</v>
+        <v>15.25852162506113</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1041,16 +977,16 @@
         <v>201814687</v>
       </c>
       <c r="C30">
-        <v>917.33581871872457</v>
+        <v>917.3358187187246</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F30">
-        <v>12.50595984748534</v>
+        <v>15.13457405595029</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1061,16 +997,16 @@
         <v>201814962</v>
       </c>
       <c r="C31">
-        <v>675.27412979077405</v>
+        <v>675.2741297907741</v>
       </c>
       <c r="D31">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F31">
-        <v>16.80703642934245</v>
+        <v>16.93242871726342</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1081,16 +1017,16 @@
         <v>201815437</v>
       </c>
       <c r="C32">
-        <v>844.30382777986438</v>
+        <v>844.3038277798644</v>
       </c>
       <c r="D32">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E32">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F32">
-        <v>16.245289413830989</v>
+        <v>15.49427226272797</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1101,16 +1037,16 @@
         <v>201815512</v>
       </c>
       <c r="C33">
-        <v>549.51275351114396</v>
+        <v>549.512753511144</v>
       </c>
       <c r="D33">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F33">
-        <v>13.5262152180609</v>
+        <v>15.95233419114688</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1121,16 +1057,16 @@
         <v>201816111</v>
       </c>
       <c r="C34">
-        <v>671.97680946740934</v>
+        <v>671.9768094674093</v>
       </c>
       <c r="D34">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F34">
-        <v>15.43527759505419</v>
+        <v>16.22235174768976</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1141,16 +1077,16 @@
         <v>201816343</v>
       </c>
       <c r="C35">
-        <v>692.58362797281677</v>
+        <v>692.5836279728168</v>
       </c>
       <c r="D35">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>23</v>
       </c>
       <c r="F35">
-        <v>16.33887364486564</v>
+        <v>12.91457518366051</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1164,13 +1100,13 @@
         <v>902.7056520020692</v>
       </c>
       <c r="D36">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F36">
-        <v>15.116195130521451</v>
+        <v>13.77118179355928</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1181,16 +1117,16 @@
         <v>201816450</v>
       </c>
       <c r="C37">
-        <v>556.98973812705196</v>
+        <v>556.989738127052</v>
       </c>
       <c r="D37">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F37">
-        <v>14.11202307102557</v>
+        <v>16.92295528222361</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1201,16 +1137,16 @@
         <v>201816702</v>
       </c>
       <c r="C38">
-        <v>495.24025214985079</v>
+        <v>495.2402521498508</v>
       </c>
       <c r="D38">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E38">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F38">
-        <v>13.818876338584291</v>
+        <v>18.1253036712901</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1221,16 +1157,16 @@
         <v>201816811</v>
       </c>
       <c r="C39">
-        <v>398.12219911784672</v>
+        <v>398.1221991178467</v>
       </c>
       <c r="D39">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E39">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F39">
-        <v>19.01758880399975</v>
+        <v>14.61409988717504</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1241,16 +1177,16 @@
         <v>201816880</v>
       </c>
       <c r="C40">
-        <v>753.71905041230093</v>
+        <v>976.9241336073187</v>
       </c>
       <c r="D40">
         <v>93</v>
       </c>
       <c r="E40">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F40">
-        <v>18.113946687330522</v>
+        <v>11.40929779155368</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1264,13 +1200,13 @@
         <v>360.5669254114004</v>
       </c>
       <c r="D41">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F41">
-        <v>12.70655687696803</v>
+        <v>16.68406148173267</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1281,16 +1217,16 @@
         <v>201817039</v>
       </c>
       <c r="C42">
-        <v>384.07867252720712</v>
+        <v>384.0786725272071</v>
       </c>
       <c r="D42">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E42">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F42">
-        <v>12.825330550005569</v>
+        <v>14.83720624256284</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1301,16 +1237,16 @@
         <v>201817565</v>
       </c>
       <c r="C43">
-        <v>722.38386319110327</v>
+        <v>722.3838631911033</v>
       </c>
       <c r="D43">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F43">
-        <v>12.46620720863395</v>
+        <v>15.60090485636399</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1321,16 +1257,16 @@
         <v>201817673</v>
       </c>
       <c r="C44">
-        <v>689.78292769599977</v>
+        <v>689.7829276959998</v>
       </c>
       <c r="D44">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E44">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F44">
-        <v>17.317338633585312</v>
+        <v>14.45186781136583</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1341,16 +1277,16 @@
         <v>201817775</v>
       </c>
       <c r="C45">
-        <v>938.23117198358057</v>
+        <v>938.2311719835806</v>
       </c>
       <c r="D45">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45">
-        <v>12.434545862230101</v>
+        <v>18.7047240994094</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1361,16 +1297,16 @@
         <v>201817781</v>
       </c>
       <c r="C46">
-        <v>870.35523973059128</v>
+        <v>870.3552397305913</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E46">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F46">
-        <v>15.587439206557219</v>
+        <v>15.83763559107462</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1381,16 +1317,16 @@
         <v>201817865</v>
       </c>
       <c r="C47">
-        <v>404.83283523534698</v>
+        <v>404.832835235347</v>
       </c>
       <c r="D47">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E47">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F47">
-        <v>15.431521924507139</v>
+        <v>13.34614942957308</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1401,16 +1337,16 @@
         <v>201817877</v>
       </c>
       <c r="C48">
-        <v>560.36025150251635</v>
+        <v>560.3602515025163</v>
       </c>
       <c r="D48">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E48">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F48">
-        <v>17.373747845316771</v>
+        <v>16.06695405617901</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1424,13 +1360,13 @@
         <v>754.1667539626859</v>
       </c>
       <c r="D49">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E49">
         <v>15</v>
       </c>
       <c r="F49">
-        <v>18.093401861434021</v>
+        <v>16.2542081355473</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1441,16 +1377,16 @@
         <v>201818133</v>
       </c>
       <c r="C50">
-        <v>400.21415178704518</v>
+        <v>400.2141517870452</v>
       </c>
       <c r="D50">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F50">
-        <v>16.93242871726342</v>
+        <v>13.78162148602348</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1461,16 +1397,16 @@
         <v>201818418</v>
       </c>
       <c r="C51">
-        <v>980.72146228234612</v>
+        <v>980.7214622823461</v>
       </c>
       <c r="D51">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E51">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F51">
-        <v>12.588838681992041</v>
+        <v>15.52337898341105</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1481,16 +1417,16 @@
         <v>201818460</v>
       </c>
       <c r="C52">
-        <v>779.33313069927522</v>
+        <v>779.3331306992752</v>
       </c>
       <c r="D52">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E52">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F52">
-        <v>15.129777941037871</v>
+        <v>14.62725614960803</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1501,16 +1437,16 @@
         <v>201818517</v>
       </c>
       <c r="C53">
-        <v>614.55135575822658</v>
+        <v>614.5513557582266</v>
       </c>
       <c r="D53">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E53">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F53">
-        <v>15.25785352532592</v>
+        <v>13.77841449168812</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1521,16 +1457,16 @@
         <v>201818594</v>
       </c>
       <c r="C54">
-        <v>814.04365427399989</v>
+        <v>814.0436542739999</v>
       </c>
       <c r="D54">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E54">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F54">
-        <v>12.81912173518576</v>
+        <v>15.44620976715637</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1541,16 +1477,16 @@
         <v>201818738</v>
       </c>
       <c r="C55">
-        <v>860.33519119547827</v>
+        <v>833.0321155834621</v>
       </c>
       <c r="D55">
         <v>88</v>
       </c>
       <c r="E55">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F55">
-        <v>19.415920006185981</v>
+        <v>12.27728000412399</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1561,16 +1497,16 @@
         <v>201819059</v>
       </c>
       <c r="C56">
-        <v>661.90937311186678</v>
+        <v>661.9093731118668</v>
       </c>
       <c r="D56">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E56">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F56">
-        <v>12.999821942120951</v>
+        <v>13.81887633858429</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1581,16 +1517,16 @@
         <v>201819725</v>
       </c>
       <c r="C57">
-        <v>517.10227644136523</v>
+        <v>517.1022764413652</v>
       </c>
       <c r="D57">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E57">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F57">
-        <v>15.640868878228479</v>
+        <v>14.48534926997267</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1601,16 +1537,16 @@
         <v>201819781</v>
       </c>
       <c r="C58">
-        <v>437.17261851430038</v>
+        <v>437.1726185143004</v>
       </c>
       <c r="D58">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E58">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F58">
-        <v>15.150214687455581</v>
+        <v>15.72567161904313</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1624,13 +1560,13 @@
         <v>594.0041159058128</v>
       </c>
       <c r="D59">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E59">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F59">
-        <v>14.925606882849189</v>
+        <v>11.90224093495572</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1641,16 +1577,16 @@
         <v>201819953</v>
       </c>
       <c r="C60">
-        <v>724.04610920587879</v>
+        <v>724.0461092058788</v>
       </c>
       <c r="D60">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E60">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F60">
-        <v>16.825593222767829</v>
+        <v>13.18241826647914</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1664,13 +1600,13 @@
         <v>668.695148571</v>
       </c>
       <c r="D61">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E61">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F61">
-        <v>10.88904767021709</v>
+        <v>12.99982194212095</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1681,16 +1617,16 @@
         <v>201910218</v>
       </c>
       <c r="C62">
-        <v>559.55233387075555</v>
+        <v>559.5523338707555</v>
       </c>
       <c r="D62">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E62">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F62">
-        <v>15.979182115637981</v>
+        <v>14.14955549280967</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1701,16 +1637,16 @@
         <v>201910222</v>
       </c>
       <c r="C63">
-        <v>349.20192368537772</v>
+        <v>349.2019236853777</v>
       </c>
       <c r="D63">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E63">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F63">
-        <v>10.59117553485769</v>
+        <v>9.718605485841135</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1721,16 +1657,16 @@
         <v>201910254</v>
       </c>
       <c r="C64">
-        <v>473.10547839069551</v>
+        <v>473.1054783906955</v>
       </c>
       <c r="D64">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E64">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F64">
-        <v>12.641580587290751</v>
+        <v>14.63187296152329</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1741,16 +1677,16 @@
         <v>201910286</v>
       </c>
       <c r="C65">
-        <v>468.31307952730458</v>
+        <v>468.3130795273046</v>
       </c>
       <c r="D65">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E65">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F65">
-        <v>15.70303482220066</v>
+        <v>13.08696442948798</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1761,16 +1697,16 @@
         <v>201910619</v>
       </c>
       <c r="C66">
-        <v>738.55379054548916</v>
+        <v>738.5537905454892</v>
       </c>
       <c r="D66">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E66">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F66">
-        <v>15.114965195409949</v>
+        <v>16.51404223398259</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1781,16 +1717,16 @@
         <v>201910625</v>
       </c>
       <c r="C67">
-        <v>489.59405436546979</v>
+        <v>489.5940543654698</v>
       </c>
       <c r="D67">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F67">
-        <v>17.37830296560346</v>
+        <v>12.89351036810506</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1804,13 +1740,13 @@
         <v>496.1143455513805</v>
       </c>
       <c r="D68">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E68">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F68">
-        <v>15.939662587117731</v>
+        <v>18.01106654093595</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1824,13 +1760,13 @@
         <v>528.2502172485822</v>
       </c>
       <c r="D69">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E69">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69">
-        <v>11.886974333116839</v>
+        <v>15.82182632410127</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1841,16 +1777,16 @@
         <v>201911125</v>
       </c>
       <c r="C70">
-        <v>623.63476500010415</v>
+        <v>623.6347650001042</v>
       </c>
       <c r="D70">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E70">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F70">
-        <v>15.19119457901758</v>
+        <v>14.25510181457405</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1861,16 +1797,16 @@
         <v>201911185</v>
       </c>
       <c r="C71">
-        <v>674.25800027870059</v>
+        <v>674.2580002787006</v>
       </c>
       <c r="D71">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E71">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F71">
-        <v>11.902240934955721</v>
+        <v>15.64086887822848</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1881,16 +1817,16 @@
         <v>201911321</v>
       </c>
       <c r="C72">
-        <v>665.27837679086247</v>
+        <v>665.2783767908625</v>
       </c>
       <c r="D72">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E72">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F72">
-        <v>15.038386452163619</v>
+        <v>20.34614240223024</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1904,13 +1840,13 @@
         <v>702.6792876728116</v>
       </c>
       <c r="D73">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E73">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F73">
-        <v>18.1963991911508</v>
+        <v>12.69140924874718</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1921,16 +1857,16 @@
         <v>201912080</v>
       </c>
       <c r="C74">
-        <v>741.93886559490943</v>
+        <v>741.9388655949094</v>
       </c>
       <c r="D74">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E74">
         <v>20</v>
       </c>
       <c r="F74">
-        <v>13.57609738950242</v>
+        <v>14.67108197448686</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1941,16 +1877,16 @@
         <v>201912116</v>
       </c>
       <c r="C75">
-        <v>494.71869393421167</v>
+        <v>494.7186939342117</v>
       </c>
       <c r="D75">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E75">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F75">
-        <v>15.08116696185505</v>
+        <v>11.55345003576902</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1961,16 +1897,16 @@
         <v>201912159</v>
       </c>
       <c r="C76">
-        <v>566.57438907776861</v>
+        <v>566.5743890777686</v>
       </c>
       <c r="D76">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E76">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F76">
-        <v>16.20001537359844</v>
+        <v>13.4433358054897</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1981,16 +1917,16 @@
         <v>201912563</v>
       </c>
       <c r="C77">
-        <v>306.55574938760799</v>
+        <v>306.555749387608</v>
       </c>
       <c r="D77">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E77">
         <v>20</v>
       </c>
       <c r="F77">
-        <v>12.321854042277289</v>
+        <v>14.358950149012</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2001,16 +1937,16 @@
         <v>201912856</v>
       </c>
       <c r="C78">
-        <v>666.77682520796088</v>
+        <v>666.7768252079609</v>
       </c>
       <c r="D78">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E78">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F78">
-        <v>16.284990278447889</v>
+        <v>15.26877648036187</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2021,16 +1957,16 @@
         <v>201913057</v>
       </c>
       <c r="C79">
-        <v>772.52988627206321</v>
+        <v>772.5298862720632</v>
       </c>
       <c r="D79">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F79">
-        <v>11.877639888017971</v>
+        <v>16.89245965337342</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2041,16 +1977,16 @@
         <v>201913207</v>
       </c>
       <c r="C80">
-        <v>668.38621906615424</v>
+        <v>668.3862190661542</v>
       </c>
       <c r="D80">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E80">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F80">
-        <v>13.2307684161549</v>
+        <v>11.46067731795548</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2061,16 +1997,16 @@
         <v>201913554</v>
       </c>
       <c r="C81">
-        <v>672.99006411835376</v>
+        <v>672.9900641183538</v>
       </c>
       <c r="D81">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E81">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F81">
-        <v>13.73863648636458</v>
+        <v>17.31733863358531</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2081,16 +2017,16 @@
         <v>201913588</v>
       </c>
       <c r="C82">
-        <v>717.63418918875254</v>
+        <v>717.6341891887525</v>
       </c>
       <c r="D82">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E82">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F82">
-        <v>15.55134680723225</v>
+        <v>19.28645691796777</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2101,16 +2037,16 @@
         <v>201913612</v>
       </c>
       <c r="C83">
-        <v>593.20710421554804</v>
+        <v>593.207104215548</v>
       </c>
       <c r="D83">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F83">
-        <v>14.98157486482129</v>
+        <v>15.03838645216362</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2121,16 +2057,16 @@
         <v>201914049</v>
       </c>
       <c r="C84">
-        <v>417.84297027970649</v>
+        <v>417.8429702797065</v>
       </c>
       <c r="D84">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E84">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F84">
-        <v>12.160772538981689</v>
+        <v>15.19831173978159</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2141,16 +2077,16 @@
         <v>201914061</v>
       </c>
       <c r="C85">
-        <v>386.69388264547962</v>
+        <v>386.6938826454796</v>
       </c>
       <c r="D85">
         <v>46</v>
       </c>
       <c r="E85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F85">
-        <v>14.61409988717504</v>
+        <v>14.31120235003939</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2161,16 +2097,16 @@
         <v>201914146</v>
       </c>
       <c r="C86">
-        <v>560.71485514117524</v>
+        <v>560.7148551411752</v>
       </c>
       <c r="D86">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E86">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F86">
-        <v>16.575992693241819</v>
+        <v>14.96635648007299</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2181,16 +2117,16 @@
         <v>201914360</v>
       </c>
       <c r="C87">
-        <v>528.81784903130051</v>
+        <v>528.8178490313005</v>
       </c>
       <c r="D87">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F87">
-        <v>15.389857049787951</v>
+        <v>17.63482479554326</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2201,16 +2137,16 @@
         <v>201914543</v>
       </c>
       <c r="C88">
-        <v>950.13880028011022</v>
+        <v>950.1388002801102</v>
       </c>
       <c r="D88">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E88">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F88">
-        <v>16.892459653373422</v>
+        <v>16.70015829021331</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2224,13 +2160,13 @@
         <v>655.2736023323863</v>
       </c>
       <c r="D89">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E89">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F89">
-        <v>12.89351036810506</v>
+        <v>16.82559322276783</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2241,16 +2177,16 @@
         <v>201914717</v>
       </c>
       <c r="C90">
-        <v>504.94512148658418</v>
+        <v>504.9451214865842</v>
       </c>
       <c r="D90">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E90">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F90">
-        <v>16.64759020979643</v>
+        <v>11.84570596682633</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2261,16 +2197,16 @@
         <v>201914942</v>
       </c>
       <c r="C91">
-        <v>560.55363593692766</v>
+        <v>560.5536359369277</v>
       </c>
       <c r="D91">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E91">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F91">
-        <v>13.43598902012187</v>
+        <v>14.45466599959657</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2281,16 +2217,16 @@
         <v>201915063</v>
       </c>
       <c r="C92">
-        <v>641.12481470135617</v>
+        <v>641.1248147013562</v>
       </c>
       <c r="D92">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E92">
         <v>18</v>
       </c>
       <c r="F92">
-        <v>14.22813706742412</v>
+        <v>13.23742263413067</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2301,16 +2237,16 @@
         <v>201915131</v>
       </c>
       <c r="C93">
-        <v>460.43917862576637</v>
+        <v>460.4391786257664</v>
       </c>
       <c r="D93">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E93">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F93">
-        <v>16.089284927009508</v>
+        <v>13.49779588074062</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2321,16 +2257,16 @@
         <v>201915194</v>
       </c>
       <c r="C94">
-        <v>455.93692885584937</v>
+        <v>455.9369288558494</v>
       </c>
       <c r="D94">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E94">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F94">
-        <v>15.608710003837141</v>
+        <v>10.59117553485769</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2341,16 +2277,16 @@
         <v>201915287</v>
       </c>
       <c r="C95">
-        <v>576.77287203079834</v>
+        <v>576.7728720307983</v>
       </c>
       <c r="D95">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E95">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F95">
-        <v>14.57582793537833</v>
+        <v>14.60873713521391</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2361,16 +2297,16 @@
         <v>201915329</v>
       </c>
       <c r="C96">
-        <v>688.53510397789137</v>
+        <v>688.5351039778914</v>
       </c>
       <c r="D96">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E96">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F96">
-        <v>13.18532186618167</v>
+        <v>15.38985704978795</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2381,16 +2317,16 @@
         <v>201915397</v>
       </c>
       <c r="C97">
-        <v>845.23455725885935</v>
+        <v>845.2345572588594</v>
       </c>
       <c r="D97">
         <v>32</v>
       </c>
       <c r="E97">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F97">
-        <v>15.52251850825381</v>
+        <v>16.51165305848794</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2401,16 +2337,16 @@
         <v>201915563</v>
       </c>
       <c r="C98">
-        <v>714.26630024332428</v>
+        <v>714.2663002433243</v>
       </c>
       <c r="D98">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E98">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F98">
-        <v>13.9129589698054</v>
+        <v>12.88368453097123</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2421,16 +2357,16 @@
         <v>201915966</v>
       </c>
       <c r="C99">
-        <v>462.10900518430151</v>
+        <v>462.1090051843015</v>
       </c>
       <c r="D99">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E99">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F99">
-        <v>15.13457405595029</v>
+        <v>16.20001537359844</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2441,16 +2377,16 @@
         <v>201915993</v>
       </c>
       <c r="C100">
-        <v>649.69604563627695</v>
+        <v>649.6960456362769</v>
       </c>
       <c r="D100">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E100">
         <v>22</v>
       </c>
       <c r="F100">
-        <v>12.239076210261061</v>
+        <v>18.1963991911508</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2461,16 +2397,16 @@
         <v>201916005</v>
       </c>
       <c r="C101">
-        <v>660.12492219669218</v>
+        <v>660.1249221966922</v>
       </c>
       <c r="D101">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E101">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F101">
-        <v>12.838342353807491</v>
+        <v>12.50595984748534</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2481,16 +2417,16 @@
         <v>201916056</v>
       </c>
       <c r="C102">
-        <v>655.33549923824478</v>
+        <v>655.3354992382448</v>
       </c>
       <c r="D102">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E102">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F102">
-        <v>15.25852162506113</v>
+        <v>15.78160096137146</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2501,16 +2437,16 @@
         <v>201916203</v>
       </c>
       <c r="C103">
-        <v>711.70222238307156</v>
+        <v>711.7022223830716</v>
       </c>
       <c r="D103">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E103">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F103">
-        <v>15.3696954596592</v>
+        <v>12.28695476328698</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2521,16 +2457,16 @@
         <v>201916237</v>
       </c>
       <c r="C104">
-        <v>716.20428358526897</v>
+        <v>716.204283585269</v>
       </c>
       <c r="D104">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E104">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F104">
-        <v>14.96635648007299</v>
+        <v>14.67030343828581</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2544,13 +2480,13 @@
         <v>736.4274968441581</v>
       </c>
       <c r="D105">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E105">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F105">
-        <v>11.841871741749619</v>
+        <v>14.53402952983583</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2561,16 +2497,16 @@
         <v>201916525</v>
       </c>
       <c r="C106">
-        <v>657.43632483097713</v>
+        <v>657.4363248309771</v>
       </c>
       <c r="D106">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E106">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F106">
-        <v>14.358950149011999</v>
+        <v>11.88697433311684</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2581,16 +2517,16 @@
         <v>201916849</v>
       </c>
       <c r="C107">
-        <v>633.80826079904932</v>
+        <v>633.8082607990493</v>
       </c>
       <c r="D107">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E107">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F107">
-        <v>18.405570898115261</v>
+        <v>15.67077354487207</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2601,16 +2537,16 @@
         <v>201917204</v>
       </c>
       <c r="C108">
-        <v>550.56504648817645</v>
+        <v>550.5650464881764</v>
       </c>
       <c r="D108">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E108">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F108">
-        <v>16.871894751319591</v>
+        <v>11.87763988801797</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2621,16 +2557,16 @@
         <v>201917344</v>
       </c>
       <c r="C109">
-        <v>551.38056134297619</v>
+        <v>551.3805613429762</v>
       </c>
       <c r="D109">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E109">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F109">
-        <v>13.52365963298195</v>
+        <v>16.51553396080497</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2641,16 +2577,16 @@
         <v>201917437</v>
       </c>
       <c r="C110">
-        <v>416.63931782388693</v>
+        <v>706.1523838505614</v>
       </c>
       <c r="D110">
         <v>89</v>
       </c>
       <c r="E110">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F110">
-        <v>15.514821109567389</v>
+        <v>9.676547406378262</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2661,16 +2597,16 @@
         <v>201917737</v>
       </c>
       <c r="C111">
-        <v>248.46332958511931</v>
+        <v>248.4633295851193</v>
       </c>
       <c r="D111">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E111">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F111">
-        <v>15.9967597098734</v>
+        <v>17.00124213109766</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2681,16 +2617,16 @@
         <v>201917782</v>
       </c>
       <c r="C112">
-        <v>829.76531660845694</v>
+        <v>829.7653166084569</v>
       </c>
       <c r="D112">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E112">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F112">
-        <v>14.631872961523291</v>
+        <v>12.81912173518576</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2701,16 +2637,16 @@
         <v>201917922</v>
       </c>
       <c r="C113">
-        <v>614.75428400518672</v>
+        <v>614.7542840051867</v>
       </c>
       <c r="D113">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E113">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F113">
-        <v>16.636340090558541</v>
+        <v>14.07187134335428</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2721,16 +2657,16 @@
         <v>201918628</v>
       </c>
       <c r="C114">
-        <v>881.50112986977263</v>
+        <v>881.5011298697726</v>
       </c>
       <c r="D114">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E114">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F114">
-        <v>17.95173823931248</v>
+        <v>13.66860726224965</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2744,13 +2680,13 @@
         <v>821.3226010895105</v>
       </c>
       <c r="D115">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E115">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F115">
-        <v>12.441358916302789</v>
+        <v>15.9967597098734</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2761,16 +2697,16 @@
         <v>201919073</v>
       </c>
       <c r="C116">
-        <v>770.84110607657431</v>
+        <v>770.8411060765743</v>
       </c>
       <c r="D116">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E116">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F116">
-        <v>15.6330564634348</v>
+        <v>20.27003729475725</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2781,16 +2717,16 @@
         <v>201919091</v>
       </c>
       <c r="C117">
-        <v>563.74599787065756</v>
+        <v>563.7459978706576</v>
       </c>
       <c r="D117">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E117">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F117">
-        <v>16.505240474642282</v>
+        <v>18.09340186143402</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2804,13 +2740,13 @@
         <v>435.7368372875053</v>
       </c>
       <c r="D118">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E118">
         <v>21</v>
       </c>
       <c r="F118">
-        <v>11.95654623119494</v>
+        <v>16.06376307018228</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2821,16 +2757,16 @@
         <v>201919462</v>
       </c>
       <c r="C119">
-        <v>655.82305807949399</v>
+        <v>655.823058079494</v>
       </c>
       <c r="D119">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E119">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F119">
-        <v>17.642913881758581</v>
+        <v>15.72887395904674</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2841,16 +2777,16 @@
         <v>201919647</v>
       </c>
       <c r="C120">
-        <v>587.79712457279629</v>
+        <v>587.7971245727963</v>
       </c>
       <c r="D120">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E120">
         <v>18</v>
       </c>
       <c r="F120">
-        <v>15.518871670028069</v>
+        <v>16.12386110871228</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2861,16 +2797,16 @@
         <v>201919727</v>
       </c>
       <c r="C121">
-        <v>258.04795847917381</v>
+        <v>258.0479584791738</v>
       </c>
       <c r="D121">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E121">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F121">
-        <v>14.067734626796989</v>
+        <v>15.31080924907295</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2881,16 +2817,16 @@
         <v>202010793</v>
       </c>
       <c r="C122">
-        <v>730.68085704030761</v>
+        <v>730.6808570403076</v>
       </c>
       <c r="D122">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E122">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F122">
-        <v>14.279863087709121</v>
+        <v>12.36661377344939</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2901,16 +2837,16 @@
         <v>202010941</v>
       </c>
       <c r="C123">
-        <v>425.42792669935778</v>
+        <v>425.4279266993578</v>
       </c>
       <c r="D123">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E123">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F123">
-        <v>16.840157198605461</v>
+        <v>14.27986308770912</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2921,16 +2857,16 @@
         <v>202010956</v>
       </c>
       <c r="C124">
-        <v>435.99883944599742</v>
+        <v>435.9988394459974</v>
       </c>
       <c r="D124">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E124">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F124">
-        <v>14.485349269972669</v>
+        <v>15.16673988948896</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2941,16 +2877,16 @@
         <v>202011094</v>
       </c>
       <c r="C125">
-        <v>674.43748998713011</v>
+        <v>674.4374899871301</v>
       </c>
       <c r="D125">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E125">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F125">
-        <v>13.8524940236967</v>
+        <v>11.95654623119494</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2961,16 +2897,16 @@
         <v>202011177</v>
       </c>
       <c r="C126">
-        <v>771.96505821413155</v>
+        <v>771.9650582141315</v>
       </c>
       <c r="D126">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E126">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F126">
-        <v>16.515533960804969</v>
+        <v>15.3696954596592</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2981,16 +2917,16 @@
         <v>202011289</v>
       </c>
       <c r="C127">
-        <v>545.20628460313651</v>
+        <v>545.2062846031365</v>
       </c>
       <c r="D127">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E127">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F127">
-        <v>15.499321929512609</v>
+        <v>13.73863648636458</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3001,16 +2937,16 @@
         <v>202011315</v>
       </c>
       <c r="C128">
-        <v>566.06944934220587</v>
+        <v>566.0694493422059</v>
       </c>
       <c r="D128">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E128">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F128">
-        <v>14.96981686763549</v>
+        <v>15.12977794103787</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3021,16 +2957,16 @@
         <v>202011338</v>
       </c>
       <c r="C129">
-        <v>486.67253096070817</v>
+        <v>486.6725309607082</v>
       </c>
       <c r="D129">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E129">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F129">
-        <v>12.54868474298978</v>
+        <v>13.36454183821634</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3041,16 +2977,16 @@
         <v>202011488</v>
       </c>
       <c r="C130">
-        <v>880.19271475443463</v>
+        <v>880.1927147544346</v>
       </c>
       <c r="D130">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E130">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F130">
-        <v>15.228875154564699</v>
+        <v>12.44135891630279</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3061,16 +2997,16 @@
         <v>202011515</v>
       </c>
       <c r="C131">
-        <v>478.62596860985678</v>
+        <v>478.6259686098568</v>
       </c>
       <c r="D131">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E131">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F131">
-        <v>12.36727690471219</v>
+        <v>14.96981686763549</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3081,16 +3017,16 @@
         <v>202011571</v>
       </c>
       <c r="C132">
-        <v>463.19859468956611</v>
+        <v>463.1985946895661</v>
       </c>
       <c r="D132">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E132">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F132">
-        <v>14.313472293900521</v>
+        <v>15.54610197446311</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3101,16 +3037,16 @@
         <v>202011572</v>
       </c>
       <c r="C133">
-        <v>476.62150639883839</v>
+        <v>476.6215063988384</v>
       </c>
       <c r="D133">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E133">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F133">
-        <v>17.63482479554326</v>
+        <v>15.19140637278005</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3121,16 +3057,16 @@
         <v>202011615</v>
       </c>
       <c r="C134">
-        <v>434.98349299877327</v>
+        <v>434.9834929987733</v>
       </c>
       <c r="D134">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E134">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F134">
-        <v>16.247302455933351</v>
+        <v>16.99116426690577</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3141,16 +3077,16 @@
         <v>202011720</v>
       </c>
       <c r="C135">
-        <v>834.23647017199369</v>
+        <v>834.2364701719937</v>
       </c>
       <c r="D135">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E135">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F135">
-        <v>13.34614942957308</v>
+        <v>9.928601901012652</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3161,16 +3097,16 @@
         <v>202011755</v>
       </c>
       <c r="C136">
-        <v>600.08143495716899</v>
+        <v>600.081434957169</v>
       </c>
       <c r="D136">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E136">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F136">
-        <v>17.39142260410415</v>
+        <v>13.84852071218049</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3181,16 +3117,16 @@
         <v>202011986</v>
       </c>
       <c r="C137">
-        <v>759.40281655785088</v>
+        <v>759.4028165578509</v>
       </c>
       <c r="D137">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E137">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F137">
-        <v>15.46357317959548</v>
+        <v>11.84187174174962</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3201,16 +3137,16 @@
         <v>202011987</v>
       </c>
       <c r="C138">
-        <v>787.71042007945778</v>
+        <v>787.7104200794578</v>
       </c>
       <c r="D138">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E138">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F138">
-        <v>15.78160096137146</v>
+        <v>16.57599269324182</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3221,16 +3157,16 @@
         <v>202012126</v>
       </c>
       <c r="C139">
-        <v>788.84612390290738</v>
+        <v>788.8461239029074</v>
       </c>
       <c r="D139">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E139">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F139">
-        <v>16.51404223398259</v>
+        <v>18.477169302205</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3241,16 +3177,16 @@
         <v>202012144</v>
       </c>
       <c r="C140">
-        <v>646.23366837824085</v>
+        <v>646.2336683782408</v>
       </c>
       <c r="D140">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E140">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F140">
-        <v>15.52337898341105</v>
+        <v>12.6075907541713</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3261,16 +3197,16 @@
         <v>202012285</v>
       </c>
       <c r="C141">
-        <v>1334.6142402230239</v>
+        <v>352.1470329266483</v>
       </c>
       <c r="D141">
         <v>87</v>
       </c>
       <c r="E141">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F141">
-        <v>15.469875334389551</v>
+        <v>9.646583556259698</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3281,16 +3217,16 @@
         <v>202012362</v>
       </c>
       <c r="C142">
-        <v>649.94358006592847</v>
+        <v>649.9435800659285</v>
       </c>
       <c r="D142">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E142">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F142">
-        <v>14.255101814574051</v>
+        <v>13.81640060362647</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3301,16 +3237,16 @@
         <v>202012416</v>
       </c>
       <c r="C143">
-        <v>555.84182215565068</v>
+        <v>555.8418221556507</v>
       </c>
       <c r="D143">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E143">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F143">
-        <v>15.546101974463109</v>
+        <v>13.9129589698054</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3321,16 +3257,16 @@
         <v>202012802</v>
       </c>
       <c r="C144">
-        <v>387.24042120956341</v>
+        <v>387.2404212095634</v>
       </c>
       <c r="D144">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E144">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F144">
-        <v>11.24958111866068</v>
+        <v>15.47886394622442</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3344,13 +3280,13 @@
         <v>822.5195150328974</v>
       </c>
       <c r="D145">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E145">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F145">
-        <v>11.55345003576902</v>
+        <v>16.63016640586801</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3361,16 +3297,16 @@
         <v>202013841</v>
       </c>
       <c r="C146">
-        <v>689.45203250513146</v>
+        <v>689.4520325051315</v>
       </c>
       <c r="D146">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E146">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F146">
-        <v>18.125303671290101</v>
+        <v>15.52251850825381</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3384,13 +3320,13 @@
         <v>896.5261632128304</v>
       </c>
       <c r="D147">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E147">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F147">
-        <v>16.063763070182279</v>
+        <v>15.6330564634348</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3401,16 +3337,16 @@
         <v>202014166</v>
       </c>
       <c r="C148">
-        <v>760.94880068751331</v>
+        <v>760.9488006875133</v>
       </c>
       <c r="D148">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E148">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F148">
-        <v>15.67077354487207</v>
+        <v>12.50730917687887</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3421,16 +3357,16 @@
         <v>202014741</v>
       </c>
       <c r="C149">
-        <v>588.79833688540714</v>
+        <v>588.7983368854071</v>
       </c>
       <c r="D149">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E149">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F149">
-        <v>14.294679063209591</v>
+        <v>16.16402353532268</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3441,16 +3377,16 @@
         <v>202014989</v>
       </c>
       <c r="C150">
-        <v>476.55160213733302</v>
+        <v>476.551602137333</v>
       </c>
       <c r="D150">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E150">
         <v>17</v>
       </c>
       <c r="F150">
-        <v>11.849419707357111</v>
+        <v>13.52365963298195</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3461,16 +3397,16 @@
         <v>202015048</v>
       </c>
       <c r="C151">
-        <v>712.74038737243416</v>
+        <v>712.7403873724342</v>
       </c>
       <c r="D151">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E151">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F151">
-        <v>16.68406148173267</v>
+        <v>10.7166736439715</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3481,16 +3417,16 @@
         <v>202015196</v>
       </c>
       <c r="C152">
-        <v>668.54463535905506</v>
+        <v>668.5446353590551</v>
       </c>
       <c r="D152">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E152">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F152">
-        <v>20.270037294757248</v>
+        <v>13.18532186618167</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3501,16 +3437,16 @@
         <v>202015265</v>
       </c>
       <c r="C153">
-        <v>753.47773355850904</v>
+        <v>753.477733558509</v>
       </c>
       <c r="D153">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E153">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F153">
-        <v>12.91457518366051</v>
+        <v>15.03619842092422</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3521,16 +3457,16 @@
         <v>202015482</v>
       </c>
       <c r="C154">
-        <v>508.99948160608608</v>
+        <v>508.9994816060861</v>
       </c>
       <c r="D154">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E154">
         <v>20</v>
       </c>
       <c r="F154">
-        <v>12.596535467723561</v>
+        <v>16.45912440212965</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3541,16 +3477,16 @@
         <v>202015781</v>
       </c>
       <c r="C155">
-        <v>223.74910284687019</v>
+        <v>223.7491028468702</v>
       </c>
       <c r="D155">
         <v>46</v>
       </c>
       <c r="E155">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F155">
-        <v>14.67108197448686</v>
+        <v>15.46357317959548</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3561,16 +3497,16 @@
         <v>202016103</v>
       </c>
       <c r="C156">
-        <v>474.26029908520508</v>
+        <v>474.2602990852051</v>
       </c>
       <c r="D156">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E156">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F156">
-        <v>14.17008316016298</v>
+        <v>13.18369884349534</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3581,16 +3517,16 @@
         <v>202016238</v>
       </c>
       <c r="C157">
-        <v>578.43152976461636</v>
+        <v>578.4315297646164</v>
       </c>
       <c r="D157">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E157">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F157">
-        <v>12.366613773449391</v>
+        <v>12.69002754010604</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3601,16 +3537,16 @@
         <v>202016312</v>
       </c>
       <c r="C158">
-        <v>1101.1066540935949</v>
+        <v>429.6032142658594</v>
       </c>
       <c r="D158">
         <v>79</v>
       </c>
       <c r="E158">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F158">
-        <v>13.96279045050567</v>
+        <v>8.641860300337115</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3621,16 +3557,16 @@
         <v>202016638</v>
       </c>
       <c r="C159">
-        <v>850.32905870287004</v>
+        <v>850.32905870287</v>
       </c>
       <c r="D159">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E159">
         <v>19</v>
       </c>
       <c r="F159">
-        <v>14.60924625634064</v>
+        <v>16.21944818582402</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3641,16 +3577,16 @@
         <v>202016686</v>
       </c>
       <c r="C160">
-        <v>555.16211602066323</v>
+        <v>555.1621160206632</v>
       </c>
       <c r="D160">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E160">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F160">
-        <v>13.78162148602348</v>
+        <v>15.35793070932903</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3661,16 +3597,16 @@
         <v>202017214</v>
       </c>
       <c r="C161">
-        <v>864.17771501794482</v>
+        <v>864.1777150179448</v>
       </c>
       <c r="D161">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E161">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F161">
-        <v>12.20827482631989</v>
+        <v>11.24958111866068</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3681,16 +3617,16 @@
         <v>202017228</v>
       </c>
       <c r="C162">
-        <v>612.07237460485749</v>
+        <v>612.0723746048575</v>
       </c>
       <c r="D162">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E162">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F162">
-        <v>15.26877648036187</v>
+        <v>15.15245521437337</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3701,16 +3637,16 @@
         <v>202017313</v>
       </c>
       <c r="C163">
-        <v>608.02142141495176</v>
+        <v>608.0214214149518</v>
       </c>
       <c r="D163">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E163">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F163">
-        <v>14.534029529835831</v>
+        <v>12.16077253898169</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3721,16 +3657,16 @@
         <v>202017340</v>
       </c>
       <c r="C164">
-        <v>707.18713433542803</v>
+        <v>345.9326920277633</v>
       </c>
       <c r="D164">
         <v>90</v>
       </c>
       <c r="E164">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F164">
-        <v>14.71725648150581</v>
+        <v>9.144837654337207</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3744,13 +3680,13 @@
         <v>773.0424107525098</v>
       </c>
       <c r="D165">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E165">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F165">
-        <v>14.77903878217445</v>
+        <v>17.27840004694996</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3761,16 +3697,16 @@
         <v>202017539</v>
       </c>
       <c r="C166">
-        <v>614.63675444276384</v>
+        <v>614.6367544427638</v>
       </c>
       <c r="D166">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E166">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F166">
-        <v>12.85194181521306</v>
+        <v>13.23680283512828</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3781,16 +3717,16 @@
         <v>202017600</v>
       </c>
       <c r="C167">
-        <v>541.83548648395038</v>
+        <v>541.8354864839504</v>
       </c>
       <c r="D167">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E167">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F167">
-        <v>15.191406372780049</v>
+        <v>16.21217154405144</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3801,16 +3737,16 @@
         <v>202017691</v>
       </c>
       <c r="C168">
-        <v>610.15780595739773</v>
+        <v>610.1578059573977</v>
       </c>
       <c r="D168">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E168">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F168">
-        <v>15.32792997627042</v>
+        <v>14.57850215488256</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3821,16 +3757,16 @@
         <v>202017832</v>
       </c>
       <c r="C169">
-        <v>522.89124105810333</v>
+        <v>522.8912410581033</v>
       </c>
       <c r="D169">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E169">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F169">
-        <v>12.293494250354319</v>
+        <v>11.69283413883461</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3841,16 +3777,16 @@
         <v>202017878</v>
       </c>
       <c r="C170">
-        <v>482.97079798461078</v>
+        <v>482.9707979846108</v>
       </c>
       <c r="D170">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E170">
         <v>19</v>
       </c>
       <c r="F170">
-        <v>10.66165007753535</v>
+        <v>14.76534609018239</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3861,16 +3797,16 @@
         <v>202017957</v>
       </c>
       <c r="C171">
-        <v>700.43202069242341</v>
+        <v>806.6735221530553</v>
       </c>
       <c r="D171">
         <v>82</v>
       </c>
       <c r="E171">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F171">
-        <v>18.494742689583241</v>
+        <v>11.66316179305549</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3881,16 +3817,16 @@
         <v>202017970</v>
       </c>
       <c r="C172">
-        <v>712.48871526468429</v>
+        <v>712.4887152646843</v>
       </c>
       <c r="D172">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E172">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F172">
-        <v>13.87281845240612</v>
+        <v>18.27853365634984</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3904,13 +3840,13 @@
         <v>354.8078185321616</v>
       </c>
       <c r="D173">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E173">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F173">
-        <v>12.732669711915831</v>
+        <v>13.02450704793549</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3921,16 +3857,16 @@
         <v>202018326</v>
       </c>
       <c r="C174">
-        <v>903.00129504953645</v>
+        <v>552.3255801236525</v>
       </c>
       <c r="D174">
         <v>78</v>
       </c>
       <c r="E174">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F174">
-        <v>12.56109310619806</v>
+        <v>7.707395404132037</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3941,16 +3877,16 @@
         <v>202018477</v>
       </c>
       <c r="C175">
-        <v>806.89042872103528</v>
+        <v>806.8904287210353</v>
       </c>
       <c r="D175">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E175">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F175">
-        <v>14.62725614960803</v>
+        <v>17.39142260410415</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3961,16 +3897,16 @@
         <v>202018900</v>
       </c>
       <c r="C176">
-        <v>700.07757669618081</v>
+        <v>700.0775766961808</v>
       </c>
       <c r="D176">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E176">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F176">
-        <v>12.361266638354291</v>
+        <v>17.37830296560346</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3981,16 +3917,16 @@
         <v>202019108</v>
       </c>
       <c r="C177">
-        <v>419.33414370280951</v>
+        <v>419.3341437028095</v>
       </c>
       <c r="D177">
         <v>49</v>
       </c>
       <c r="E177">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F177">
-        <v>16.164023535322681</v>
+        <v>14.92560688284919</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4001,16 +3937,16 @@
         <v>202019629</v>
       </c>
       <c r="C178">
-        <v>739.52629123048052</v>
+        <v>739.5262912304805</v>
       </c>
       <c r="D178">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E178">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F178">
-        <v>14.741386297970349</v>
+        <v>14.17008316016298</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4021,16 +3957,16 @@
         <v>202019790</v>
       </c>
       <c r="C179">
-        <v>537.64583359411324</v>
+        <v>537.6458335941132</v>
       </c>
       <c r="D179">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E179">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F179">
-        <v>17.831673465680321</v>
+        <v>14.77903878217445</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4041,16 +3977,16 @@
         <v>202019821</v>
       </c>
       <c r="C180">
-        <v>755.65926532326182</v>
+        <v>755.6592653232618</v>
       </c>
       <c r="D180">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E180">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F180">
-        <v>14.98373777309404</v>
+        <v>16.08928492700951</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4061,16 +3997,16 @@
         <v>202019939</v>
       </c>
       <c r="C181">
-        <v>671.71000397479554</v>
+        <v>671.7100039747955</v>
       </c>
       <c r="D181">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E181">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F181">
-        <v>14.412609079414731</v>
+        <v>15.11496519540995</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4081,16 +4017,16 @@
         <v>202110260</v>
       </c>
       <c r="C182">
-        <v>636.45418382163416</v>
+        <v>790.2357581144913</v>
       </c>
       <c r="D182">
         <v>74</v>
       </c>
       <c r="E182">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F182">
-        <v>15.86019501868134</v>
+        <v>9.906796679120893</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4101,16 +4037,16 @@
         <v>202110685</v>
       </c>
       <c r="C183">
-        <v>884.04625045516184</v>
+        <v>884.0462504551618</v>
       </c>
       <c r="D183">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E183">
         <v>20</v>
       </c>
       <c r="F183">
-        <v>13.443335805489699</v>
+        <v>14.98157486482129</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4121,16 +4057,16 @@
         <v>202110830</v>
       </c>
       <c r="C184">
-        <v>698.90613682134654</v>
+        <v>698.9061368213465</v>
       </c>
       <c r="D184">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E184">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F184">
-        <v>12.86159373081907</v>
+        <v>11.84941970735711</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4141,16 +4077,16 @@
         <v>202111264</v>
       </c>
       <c r="C185">
-        <v>581.60803057368241</v>
+        <v>581.6080305736824</v>
       </c>
       <c r="D185">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E185">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F185">
-        <v>12.82099240671041</v>
+        <v>15.53017103584396</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4161,16 +4097,16 @@
         <v>202111410</v>
       </c>
       <c r="C186">
-        <v>548.24347983911116</v>
+        <v>548.2434798391112</v>
       </c>
       <c r="D186">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E186">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F186">
-        <v>12.481283037948121</v>
+        <v>14.53719050412301</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4181,16 +4117,16 @@
         <v>202111820</v>
       </c>
       <c r="C187">
-        <v>724.64912200071751</v>
+        <v>724.6491220007175</v>
       </c>
       <c r="D187">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E187">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F187">
-        <v>13.48189639543928</v>
+        <v>14.84430382539673</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4201,16 +4137,16 @@
         <v>202111859</v>
       </c>
       <c r="C188">
-        <v>549.12621926351221</v>
+        <v>549.1262192635122</v>
       </c>
       <c r="D188">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E188">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F188">
-        <v>13.771181793559281</v>
+        <v>14.37987258984782</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4224,13 +4160,13 @@
         <v>813.4409263379174</v>
       </c>
       <c r="D189">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E189">
         <v>18</v>
       </c>
       <c r="F189">
-        <v>17.033792280060322</v>
+        <v>18.40557089811526</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4241,16 +4177,16 @@
         <v>202111873</v>
       </c>
       <c r="C190">
-        <v>300.11549329671448</v>
+        <v>300.1154932967145</v>
       </c>
       <c r="D190">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E190">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F190">
-        <v>16.13743968338002</v>
+        <v>16.71485516824221</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4261,16 +4197,16 @@
         <v>202111883</v>
       </c>
       <c r="C191">
-        <v>750.82952514196143</v>
+        <v>750.8295251419614</v>
       </c>
       <c r="D191">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E191">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F191">
-        <v>15.16673988948896</v>
+        <v>15.60335191195478</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4281,16 +4217,16 @@
         <v>202111890</v>
       </c>
       <c r="C192">
-        <v>575.92833862113912</v>
+        <v>575.9283386211391</v>
       </c>
       <c r="D192">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E192">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F192">
-        <v>15.357930709329031</v>
+        <v>13.8524940236967</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4301,16 +4237,16 @@
         <v>202111946</v>
       </c>
       <c r="C193">
-        <v>780.90270356150461</v>
+        <v>780.9027035615046</v>
       </c>
       <c r="D193">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E193">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F193">
-        <v>18.477169302204999</v>
+        <v>15.91159781953101</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4321,16 +4257,16 @@
         <v>202111967</v>
       </c>
       <c r="C194">
-        <v>596.73454298008517</v>
+        <v>596.7345429800852</v>
       </c>
       <c r="D194">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E194">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F194">
-        <v>19.286456917967769</v>
+        <v>15.49932192951261</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4341,16 +4277,16 @@
         <v>202112134</v>
       </c>
       <c r="C195">
-        <v>382.88086368343443</v>
+        <v>382.8808636834344</v>
       </c>
       <c r="D195">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E195">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F195">
-        <v>14.209872751328581</v>
+        <v>14.06773462679699</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4361,16 +4297,16 @@
         <v>202112227</v>
       </c>
       <c r="C196">
-        <v>646.53128371891773</v>
+        <v>646.5312837189177</v>
       </c>
       <c r="D196">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E196">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F196">
-        <v>14.765346090182391</v>
+        <v>13.57609738950242</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4381,16 +4317,16 @@
         <v>202112438</v>
       </c>
       <c r="C197">
-        <v>446.93469923327558</v>
+        <v>446.9346992332756</v>
       </c>
       <c r="D197">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E197">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F197">
-        <v>15.891409704601781</v>
+        <v>13.37702115095222</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4401,16 +4337,16 @@
         <v>202112487</v>
       </c>
       <c r="C198">
-        <v>525.39230351605045</v>
+        <v>525.3923035160504</v>
       </c>
       <c r="D198">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E198">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F198">
-        <v>13.086964429487979</v>
+        <v>16.28499027844789</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4424,13 +4360,13 @@
         <v>533.2596588456845</v>
       </c>
       <c r="D199">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E199">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F199">
-        <v>17.068090821373431</v>
+        <v>15.97681196125412</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4444,13 +4380,13 @@
         <v>723.8782860376748</v>
       </c>
       <c r="D200">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E200">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F200">
-        <v>16.511653058487941</v>
+        <v>13.5262152180609</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4461,16 +4397,16 @@
         <v>202112795</v>
       </c>
       <c r="C201">
-        <v>433.51997151422393</v>
+        <v>433.5199715142239</v>
       </c>
       <c r="D201">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E201">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F201">
-        <v>16.63016640586801</v>
+        <v>21.59708104656157</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4481,16 +4417,16 @@
         <v>202113632</v>
       </c>
       <c r="C202">
-        <v>662.57091072553385</v>
+        <v>662.5709107255338</v>
       </c>
       <c r="D202">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E202">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F202">
-        <v>14.42511613827328</v>
+        <v>17.64291388175858</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4501,16 +4437,16 @@
         <v>202113832</v>
       </c>
       <c r="C203">
-        <v>759.11566697423893</v>
+        <v>759.1156669742389</v>
       </c>
       <c r="D203">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E203">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F203">
-        <v>14.92809549470665</v>
+        <v>15.93966258711773</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4521,16 +4457,16 @@
         <v>202113842</v>
       </c>
       <c r="C204">
-        <v>755.07836429617782</v>
+        <v>755.0783642961778</v>
       </c>
       <c r="D204">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E204">
         <v>17</v>
       </c>
       <c r="F204">
-        <v>15.89883898466832</v>
+        <v>14.29467906320959</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4541,16 +4477,16 @@
         <v>202114106</v>
       </c>
       <c r="C205">
-        <v>396.72945380164612</v>
+        <v>396.7294538016461</v>
       </c>
       <c r="D205">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E205">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F205">
-        <v>14.36619219743589</v>
+        <v>14.22813706742412</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4561,16 +4497,16 @@
         <v>202114211</v>
       </c>
       <c r="C206">
-        <v>633.19487854988495</v>
+        <v>633.1948785498849</v>
       </c>
       <c r="D206">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E206">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F206">
-        <v>15.82182632410127</v>
+        <v>15.25785352532592</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4581,16 +4517,16 @@
         <v>202114228</v>
       </c>
       <c r="C207">
-        <v>672.45546738366397</v>
+        <v>672.455467383664</v>
       </c>
       <c r="D207">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E207">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F207">
-        <v>16.254208135547302</v>
+        <v>15.55134680723225</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4601,16 +4537,16 @@
         <v>202114232</v>
       </c>
       <c r="C208">
-        <v>736.71998959206928</v>
+        <v>736.7199895920693</v>
       </c>
       <c r="D208">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E208">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F208">
-        <v>14.116304428022611</v>
+        <v>13.87281845240612</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4621,16 +4557,16 @@
         <v>202114268</v>
       </c>
       <c r="C209">
-        <v>934.53172966225645</v>
+        <v>934.5317296622565</v>
       </c>
       <c r="D209">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E209">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F209">
-        <v>16.12386110871228</v>
+        <v>14.31347229390052</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4641,16 +4577,16 @@
         <v>202114363</v>
       </c>
       <c r="C210">
-        <v>633.79066812817837</v>
+        <v>633.7906681281784</v>
       </c>
       <c r="D210">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E210">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F210">
-        <v>16.81478998677191</v>
+        <v>15.51887167002807</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4661,16 +4597,16 @@
         <v>202114560</v>
       </c>
       <c r="C211">
-        <v>722.24635465347956</v>
+        <v>722.2463546534796</v>
       </c>
       <c r="D211">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E211">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F211">
-        <v>9.9286019010126516</v>
+        <v>16.81478998677191</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4681,16 +4617,16 @@
         <v>202114659</v>
       </c>
       <c r="C212">
-        <v>944.37291121875205</v>
+        <v>944.3729112187521</v>
       </c>
       <c r="D212">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E212">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F212">
-        <v>15.97681196125412</v>
+        <v>16.84015719860546</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4701,16 +4637,16 @@
         <v>202115174</v>
       </c>
       <c r="C213">
-        <v>491.00683214366182</v>
+        <v>491.0068321436618</v>
       </c>
       <c r="D213">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E213">
         <v>18</v>
       </c>
       <c r="F213">
-        <v>14.67030343828581</v>
+        <v>14.08710889889283</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4721,16 +4657,16 @@
         <v>202115220</v>
       </c>
       <c r="C214">
-        <v>719.59673095397454</v>
+        <v>719.5967309539745</v>
       </c>
       <c r="D214">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E214">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F214">
-        <v>14.39081515536904</v>
+        <v>14.97568798640261</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4741,16 +4677,16 @@
         <v>202115680</v>
       </c>
       <c r="C215">
-        <v>535.94874114384857</v>
+        <v>535.9487411438486</v>
       </c>
       <c r="D215">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E215">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F215">
-        <v>12.233407017650819</v>
+        <v>14.00432020692423</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4761,16 +4697,16 @@
         <v>202115692</v>
       </c>
       <c r="C216">
-        <v>594.56190134759674</v>
+        <v>594.5619013475967</v>
       </c>
       <c r="D216">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E216">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F216">
-        <v>15.775551985250409</v>
+        <v>11.16639317823887</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4781,16 +4717,16 @@
         <v>202115769</v>
       </c>
       <c r="C217">
-        <v>520.96134448225416</v>
+        <v>520.9613444822542</v>
       </c>
       <c r="D217">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E217">
         <v>21</v>
       </c>
       <c r="F217">
-        <v>12.88368453097123</v>
+        <v>16.03001295049537</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4801,16 +4737,16 @@
         <v>202115809</v>
       </c>
       <c r="C218">
-        <v>458.78754612408142</v>
+        <v>458.7875461240814</v>
       </c>
       <c r="D218">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E218">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F218">
-        <v>14.320973111003649</v>
+        <v>12.23907621026106</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4821,16 +4757,16 @@
         <v>202115892</v>
       </c>
       <c r="C219">
-        <v>530.79296376298964</v>
+        <v>530.7929637629896</v>
       </c>
       <c r="D219">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E219">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F219">
-        <v>12.24759207007479</v>
+        <v>15.08116696185505</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4841,16 +4777,16 @@
         <v>202115919</v>
       </c>
       <c r="C220">
-        <v>545.62286875672476</v>
+        <v>545.6228687567248</v>
       </c>
       <c r="D220">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E220">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F220">
-        <v>13.74318180936679</v>
+        <v>16.64759020979643</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4861,16 +4797,16 @@
         <v>202116142</v>
       </c>
       <c r="C221">
-        <v>855.51623156046242</v>
+        <v>855.5162315604624</v>
       </c>
       <c r="D221">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E221">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F221">
-        <v>12.691409248747179</v>
+        <v>18.23807647123153</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4884,13 +4820,13 @@
         <v>674.8778442250773</v>
       </c>
       <c r="D222">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E222">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F222">
-        <v>18.619313896043892</v>
+        <v>13.03700385672983</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4901,16 +4837,16 @@
         <v>202116260</v>
       </c>
       <c r="C223">
-        <v>410.57347245611612</v>
+        <v>410.5734724561161</v>
       </c>
       <c r="D223">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E223">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F223">
-        <v>14.608737135213911</v>
+        <v>16.81692279976948</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4921,16 +4857,16 @@
         <v>202116419</v>
       </c>
       <c r="C224">
-        <v>624.51804700882496</v>
+        <v>624.518047008825</v>
       </c>
       <c r="D224">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E224">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F224">
-        <v>11.460677317955479</v>
+        <v>15.15021468745558</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4941,16 +4877,16 @@
         <v>202116529</v>
       </c>
       <c r="C225">
-        <v>794.01061376274868</v>
+        <v>794.0106137627487</v>
       </c>
       <c r="D225">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E225">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F225">
-        <v>17.789469307444019</v>
+        <v>13.31107679197914</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4961,16 +4897,16 @@
         <v>202116565</v>
       </c>
       <c r="C226">
-        <v>710.45392102293056</v>
+        <v>710.4539210229306</v>
       </c>
       <c r="D226">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E226">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F226">
-        <v>14.844303825396731</v>
+        <v>17.03379228006032</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4981,16 +4917,16 @@
         <v>202116711</v>
       </c>
       <c r="C227">
-        <v>622.24535283545185</v>
+        <v>622.2453528354519</v>
       </c>
       <c r="D227">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E227">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F227">
-        <v>15.72567161904313</v>
+        <v>16.92133111492435</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5001,16 +4937,16 @@
         <v>202116872</v>
       </c>
       <c r="C228">
-        <v>628.09504984991145</v>
+        <v>628.0950498499114</v>
       </c>
       <c r="D228">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E228">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F228">
-        <v>16.700158290213309</v>
+        <v>12.4345458622301</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5021,16 +4957,16 @@
         <v>202116936</v>
       </c>
       <c r="C229">
-        <v>665.88221532056843</v>
+        <v>665.8822153205684</v>
       </c>
       <c r="D229">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E229">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F229">
-        <v>15.036198420924221</v>
+        <v>12.20827482631989</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5041,16 +4977,16 @@
         <v>202117091</v>
       </c>
       <c r="C230">
-        <v>606.99911575001761</v>
+        <v>606.9991157500176</v>
       </c>
       <c r="D230">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E230">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F230">
-        <v>16.219448185824021</v>
+        <v>12.82099240671041</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5064,13 +5000,13 @@
         <v>711.3351953601059</v>
       </c>
       <c r="D231">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E231">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F231">
-        <v>13.23680283512828</v>
+        <v>16.24176016396845</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5081,16 +5017,16 @@
         <v>202117531</v>
       </c>
       <c r="C232">
-        <v>853.0171035843963</v>
+        <v>652.1549936785243</v>
       </c>
       <c r="D232">
         <v>109</v>
       </c>
       <c r="E232">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F232">
-        <v>19.555078367401919</v>
+        <v>12.37005224493461</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5101,16 +5037,16 @@
         <v>202117759</v>
       </c>
       <c r="C233">
-        <v>740.67714390108745</v>
+        <v>740.6771439010874</v>
       </c>
       <c r="D233">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E233">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F233">
-        <v>15.655502695082991</v>
+        <v>14.42511613827328</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5121,16 +5057,16 @@
         <v>202118415</v>
       </c>
       <c r="C234">
-        <v>734.32729270356401</v>
+        <v>734.327292703564</v>
       </c>
       <c r="D234">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E234">
         <v>20</v>
       </c>
       <c r="F234">
-        <v>15.74639711833953</v>
+        <v>16.80703642934245</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5141,16 +5077,16 @@
         <v>202118897</v>
       </c>
       <c r="C235">
-        <v>518.83103108629132</v>
+        <v>518.8310310862913</v>
       </c>
       <c r="D235">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E235">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F235">
-        <v>18.23807647123153</v>
+        <v>13.30154907616214</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5161,16 +5097,16 @@
         <v>202119013</v>
       </c>
       <c r="C236">
-        <v>529.00689739235634</v>
+        <v>529.0068973923563</v>
       </c>
       <c r="D236">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E236">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F236">
-        <v>13.02450704793549</v>
+        <v>14.39081515536904</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5181,16 +5117,16 @@
         <v>202119453</v>
       </c>
       <c r="C237">
-        <v>702.69884921453922</v>
+        <v>702.6988492145392</v>
       </c>
       <c r="D237">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E237">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F237">
-        <v>14.14955549280967</v>
+        <v>15.77555198525041</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5201,16 +5137,16 @@
         <v>202119492</v>
       </c>
       <c r="C238">
-        <v>525.02753870416336</v>
+        <v>525.0275387041634</v>
       </c>
       <c r="D238">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E238">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F238">
-        <v>12.6075907541713</v>
+        <v>19.01758880399975</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5221,16 +5157,16 @@
         <v>202119541</v>
       </c>
       <c r="C239">
-        <v>1027.840004694996</v>
+        <v>649.0807904715481</v>
       </c>
       <c r="D239">
         <v>89</v>
       </c>
       <c r="E239">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F239">
-        <v>19.788174624789981</v>
+        <v>12.52544974985999</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5241,16 +5177,16 @@
         <v>202119759</v>
       </c>
       <c r="C240">
-        <v>544.42035751510332</v>
+        <v>544.4203575151033</v>
       </c>
       <c r="D240">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E240">
         <v>18</v>
       </c>
       <c r="F240">
-        <v>11.74840951222779</v>
+        <v>12.23340701765082</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5261,16 +5197,16 @@
         <v>202119857</v>
       </c>
       <c r="C241">
-        <v>683.92743018092165</v>
+        <v>683.9274301809216</v>
       </c>
       <c r="D241">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E241">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F241">
-        <v>13.037003856729831</v>
+        <v>14.74138629797035</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5281,16 +5217,16 @@
         <v>202210112</v>
       </c>
       <c r="C242">
-        <v>724.76194811765856</v>
+        <v>724.7619481176586</v>
       </c>
       <c r="D242">
         <v>47</v>
       </c>
       <c r="E242">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F242">
-        <v>13.301549076162139</v>
+        <v>12.36727690471219</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5301,16 +5237,16 @@
         <v>202210128</v>
       </c>
       <c r="C243">
-        <v>660.70408375019167</v>
+        <v>660.7040837501917</v>
       </c>
       <c r="D243">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E243">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F243">
-        <v>16.69050633632375</v>
+        <v>17.15996857947253</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5321,16 +5257,16 @@
         <v>202210274</v>
       </c>
       <c r="C244">
-        <v>477.49036257128358</v>
+        <v>477.4903625712836</v>
       </c>
       <c r="D244">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E244">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F244">
-        <v>15.44620976715637</v>
+        <v>15.19119457901758</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5341,16 +5277,16 @@
         <v>202210278</v>
       </c>
       <c r="C245">
-        <v>797.58131069671811</v>
+        <v>797.5813106967181</v>
       </c>
       <c r="D245">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E245">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F245">
-        <v>12.77875307436919</v>
+        <v>16.24528941383099</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5361,16 +5297,16 @@
         <v>202210550</v>
       </c>
       <c r="C246">
-        <v>677.83258290041533</v>
+        <v>677.8325829004153</v>
       </c>
       <c r="D246">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E246">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F246">
-        <v>10.825523033254861</v>
+        <v>12.58883868199204</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5381,16 +5317,16 @@
         <v>202210594</v>
       </c>
       <c r="C247">
-        <v>491.28438290516323</v>
+        <v>491.2843829051632</v>
       </c>
       <c r="D247">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E247">
         <v>19</v>
       </c>
       <c r="F247">
-        <v>10.7166736439715</v>
+        <v>12.86159373081907</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5401,16 +5337,16 @@
         <v>202210674</v>
       </c>
       <c r="C248">
-        <v>722.55561898869132</v>
+        <v>722.5556189886913</v>
       </c>
       <c r="D248">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E248">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F248">
-        <v>15.615492468782181</v>
+        <v>16.04233257950131</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5421,16 +5357,16 @@
         <v>202210825</v>
       </c>
       <c r="C249">
-        <v>547.36935770045898</v>
+        <v>547.369357700459</v>
       </c>
       <c r="D249">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E249">
         <v>18</v>
       </c>
       <c r="F249">
-        <v>14.57161879511697</v>
+        <v>15.89140970460178</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5441,16 +5377,16 @@
         <v>202211170</v>
       </c>
       <c r="C250">
-        <v>477.00316873430688</v>
+        <v>477.0031687343069</v>
       </c>
       <c r="D250">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E250">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F250">
-        <v>15.95233419114688</v>
+        <v>18.61931389604389</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5461,16 +5397,16 @@
         <v>202211225</v>
       </c>
       <c r="C251">
-        <v>560.90883744708935</v>
+        <v>560.9088374470894</v>
       </c>
       <c r="D251">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E251">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F251">
-        <v>18.27853365634984</v>
+        <v>12.59653546772356</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5481,16 +5417,16 @@
         <v>202211545</v>
       </c>
       <c r="C252">
-        <v>556.61680643028706</v>
+        <v>556.6168064302871</v>
       </c>
       <c r="D252">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E252">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F252">
-        <v>16.104206101329861</v>
+        <v>12.70655687696803</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5501,16 +5437,16 @@
         <v>202211546</v>
       </c>
       <c r="C253">
-        <v>676.91706924043319</v>
+        <v>676.9170692404332</v>
       </c>
       <c r="D253">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E253">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F253">
-        <v>9.7186054858411346</v>
+        <v>16.10420610132986</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5524,13 +5460,13 @@
         <v>635.9529273389918</v>
       </c>
       <c r="D254">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E254">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F254">
-        <v>15.15245521437337</v>
+        <v>15.1425000876645</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5541,16 +5477,16 @@
         <v>202211732</v>
       </c>
       <c r="C255">
-        <v>413.12236834450943</v>
+        <v>413.1223683445094</v>
       </c>
       <c r="D255">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E255">
         <v>21</v>
       </c>
       <c r="F255">
-        <v>16.042332579501309</v>
+        <v>17.5903663565181</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5561,16 +5497,16 @@
         <v>202211893</v>
       </c>
       <c r="C256">
-        <v>697.89905658067289</v>
+        <v>697.8990565806729</v>
       </c>
       <c r="D256">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E256">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F256">
-        <v>16.99116426690577</v>
+        <v>12.82533055000557</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5581,16 +5517,16 @@
         <v>202211912</v>
       </c>
       <c r="C257">
-        <v>579.72841561554401</v>
+        <v>548.9425472897076</v>
       </c>
       <c r="D257">
         <v>109</v>
       </c>
       <c r="E257">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F257">
-        <v>15.03255288859812</v>
+        <v>9.355035259065412</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5601,16 +5537,16 @@
         <v>202211939</v>
       </c>
       <c r="C258">
-        <v>446.89967926143129</v>
+        <v>446.8996792614313</v>
       </c>
       <c r="D258">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E258">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F258">
-        <v>15.610062502611949</v>
+        <v>10.88904767021709</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5621,16 +5557,16 @@
         <v>202212090</v>
       </c>
       <c r="C259">
-        <v>512.59764031814495</v>
+        <v>512.597640318145</v>
       </c>
       <c r="D259">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E259">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F259">
-        <v>13.20059516275675</v>
+        <v>12.73266971191583</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5641,16 +5577,16 @@
         <v>202212354</v>
       </c>
       <c r="C260">
-        <v>1210.695045005496</v>
+        <v>664.0767605284335</v>
       </c>
       <c r="D260">
         <v>87</v>
       </c>
       <c r="E260">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F260">
-        <v>18.42880656705054</v>
+        <v>11.61920437803369</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5661,16 +5597,16 @@
         <v>202212649</v>
       </c>
       <c r="C261">
-        <v>607.92345018009269</v>
+        <v>607.9234501800927</v>
       </c>
       <c r="D261">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E261">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F261">
-        <v>13.49779588074062</v>
+        <v>15.32792997627042</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5684,13 +5620,13 @@
         <v>536.9847405947055</v>
       </c>
       <c r="D262">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E262">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F262">
-        <v>14.45186781136583</v>
+        <v>15.48227237099009</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5701,16 +5637,16 @@
         <v>202212733</v>
       </c>
       <c r="C263">
-        <v>699.98480990604628</v>
+        <v>699.9848099060463</v>
       </c>
       <c r="D263">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E263">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F263">
-        <v>14.454665999596569</v>
+        <v>16.13743968338002</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5721,16 +5657,16 @@
         <v>202213068</v>
       </c>
       <c r="C264">
-        <v>835.11754669792526</v>
+        <v>835.1175466979253</v>
       </c>
       <c r="D264">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E264">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F264">
-        <v>15.285981990676261</v>
+        <v>14.48860817061035</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5741,16 +5677,16 @@
         <v>202213086</v>
       </c>
       <c r="C265">
-        <v>739.48152754259979</v>
+        <v>739.4815275425998</v>
       </c>
       <c r="D265">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E265">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F265">
-        <v>14.837206242562839</v>
+        <v>15.58743920655722</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5761,16 +5697,16 @@
         <v>202213675</v>
       </c>
       <c r="C266">
-        <v>930.65494842377734</v>
+        <v>930.6549484237773</v>
       </c>
       <c r="D266">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E266">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F266">
-        <v>14.087108898892829</v>
+        <v>14.20987275132858</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5781,16 +5717,16 @@
         <v>202213704</v>
       </c>
       <c r="C267">
-        <v>561.89644369420728</v>
+        <v>561.8964436942073</v>
       </c>
       <c r="D267">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E267">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F267">
-        <v>15.1425000876645</v>
+        <v>13.2307684161549</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5801,16 +5737,16 @@
         <v>202213883</v>
       </c>
       <c r="C268">
-        <v>872.73395543127424</v>
+        <v>872.7339554312742</v>
       </c>
       <c r="D268">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E268">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F268">
-        <v>14.49921054718431</v>
+        <v>17.37374784531677</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5821,16 +5757,16 @@
         <v>202214036</v>
       </c>
       <c r="C269">
-        <v>619.18656623492723</v>
+        <v>619.1865662349272</v>
       </c>
       <c r="D269">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E269">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F269">
-        <v>16.922955282223612</v>
+        <v>12.00124630110524</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5841,16 +5777,16 @@
         <v>202214311</v>
       </c>
       <c r="C270">
-        <v>518.52795215816764</v>
+        <v>518.5279521581676</v>
       </c>
       <c r="D270">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E270">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F270">
-        <v>16.241760163968451</v>
+        <v>12.83834235380749</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5861,16 +5797,16 @@
         <v>202214327</v>
       </c>
       <c r="C271">
-        <v>533.45402702790318</v>
+        <v>533.4540270279032</v>
       </c>
       <c r="D271">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E271">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F271">
-        <v>16.066954056179011</v>
+        <v>10.28495359252742</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5881,16 +5817,16 @@
         <v>202214351</v>
       </c>
       <c r="C272">
-        <v>693.64531124906966</v>
+        <v>693.6453112490697</v>
       </c>
       <c r="D272">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E272">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F272">
-        <v>15.198311739781589</v>
+        <v>12.46620720863395</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5901,16 +5837,16 @@
         <v>202214519</v>
       </c>
       <c r="C273">
-        <v>458.33127340097349</v>
+        <v>458.3312734009735</v>
       </c>
       <c r="D273">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E273">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F273">
-        <v>16.125250261124229</v>
+        <v>15.60871000383714</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5921,16 +5857,16 @@
         <v>202214544</v>
       </c>
       <c r="C274">
-        <v>606.77130108180666</v>
+        <v>606.7713010818067</v>
       </c>
       <c r="D274">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E274">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F274">
-        <v>21.59708104656157</v>
+        <v>15.43527759505419</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5941,16 +5877,16 @@
         <v>202214854</v>
       </c>
       <c r="C275">
-        <v>337.23591773007831</v>
+        <v>337.2359177300783</v>
       </c>
       <c r="D275">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E275">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F275">
-        <v>12.00124630110524</v>
+        <v>13.20059516275675</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5964,13 +5900,13 @@
         <v>532.9403613670745</v>
       </c>
       <c r="D276">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E276">
         <v>17</v>
       </c>
       <c r="F276">
-        <v>16.921331114924349</v>
+        <v>15.89883898466832</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5981,16 +5917,16 @@
         <v>202215134</v>
       </c>
       <c r="C277">
-        <v>502.02595838119169</v>
+        <v>502.0259583811917</v>
       </c>
       <c r="D277">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E277">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F277">
-        <v>15.728873959046741</v>
+        <v>15.31227983672774</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6001,16 +5937,16 @@
         <v>202215635</v>
       </c>
       <c r="C278">
-        <v>636.96362249161996</v>
+        <v>636.96362249162</v>
       </c>
       <c r="D278">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E278">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F278">
-        <v>17.672784727354991</v>
+        <v>14.14112809733371</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6021,16 +5957,16 @@
         <v>202215847</v>
       </c>
       <c r="C279">
-        <v>410.75132053800439</v>
+        <v>410.7513205380044</v>
       </c>
       <c r="D279">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E279">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F279">
-        <v>11.692834138834611</v>
+        <v>13.03903252597825</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6041,16 +5977,16 @@
         <v>202215929</v>
       </c>
       <c r="C280">
-        <v>432.78500016198763</v>
+        <v>432.7850001619876</v>
       </c>
       <c r="D280">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E280">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F280">
-        <v>15.47886394622442</v>
+        <v>16.50524047464228</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6061,16 +5997,16 @@
         <v>202216487</v>
       </c>
       <c r="C281">
-        <v>843.65480814600528</v>
+        <v>843.6548081460053</v>
       </c>
       <c r="D281">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E281">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F281">
-        <v>13.03903252597825</v>
+        <v>15.74639711833953</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6081,16 +6017,16 @@
         <v>202216973</v>
       </c>
       <c r="C282">
-        <v>895.41515764692167</v>
+        <v>895.4151576469217</v>
       </c>
       <c r="D282">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E282">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F282">
-        <v>16.222351747689761</v>
+        <v>16.87189475131959</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6101,16 +6037,16 @@
         <v>202217012</v>
       </c>
       <c r="C283">
-        <v>780.36215617627727</v>
+        <v>780.3621561762773</v>
       </c>
       <c r="D283">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E283">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F283">
-        <v>12.690027540106041</v>
+        <v>17.78946930744402</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6121,16 +6057,16 @@
         <v>202217023</v>
       </c>
       <c r="C284">
-        <v>605.86763096897459</v>
+        <v>605.8676309689746</v>
       </c>
       <c r="D284">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E284">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F284">
-        <v>13.848520712180489</v>
+        <v>13.83769948617521</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6141,16 +6077,16 @@
         <v>202217095</v>
       </c>
       <c r="C285">
-        <v>559.82960839214172</v>
+        <v>559.8296083921417</v>
       </c>
       <c r="D285">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E285">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F285">
-        <v>10.284953592527421</v>
+        <v>16.63634009055854</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6161,16 +6097,16 @@
         <v>202217251</v>
       </c>
       <c r="C286">
-        <v>744.06261944112464</v>
+        <v>744.0626194411246</v>
       </c>
       <c r="D286">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E286">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F286">
-        <v>13.816400603626469</v>
+        <v>12.77875307436919</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6181,16 +6117,16 @@
         <v>202217352</v>
       </c>
       <c r="C287">
-        <v>818.13010992513375</v>
+        <v>818.1301099251338</v>
       </c>
       <c r="D287">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E287">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F287">
-        <v>16.45912440212965</v>
+        <v>13.48189639543928</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6201,16 +6137,16 @@
         <v>202217506</v>
       </c>
       <c r="C288">
-        <v>713.16784546382121</v>
+        <v>713.1678454638212</v>
       </c>
       <c r="D288">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E288">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F288">
-        <v>13.837699486175209</v>
+        <v>14.49921054718431</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6221,16 +6157,16 @@
         <v>202217772</v>
       </c>
       <c r="C289">
-        <v>965.79957052440795</v>
+        <v>965.799570524408</v>
       </c>
       <c r="D289">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E289">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F289">
-        <v>13.183698843495341</v>
+        <v>12.32185404227729</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6241,16 +6177,16 @@
         <v>202217881</v>
       </c>
       <c r="C290">
-        <v>769.10352414555189</v>
+        <v>769.1035241455519</v>
       </c>
       <c r="D290">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E290">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F290">
-        <v>14.141128097333709</v>
+        <v>16.12525026112423</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6261,16 +6197,16 @@
         <v>202218058</v>
       </c>
       <c r="C291">
-        <v>495.90688553275811</v>
+        <v>495.9068855327581</v>
       </c>
       <c r="D291">
         <v>46</v>
       </c>
       <c r="E291">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F291">
-        <v>14.445809650868711</v>
+        <v>17.83167346568032</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6281,16 +6217,16 @@
         <v>202218150</v>
       </c>
       <c r="C292">
-        <v>687.80696734172238</v>
+        <v>687.8069673417224</v>
       </c>
       <c r="D292">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E292">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F292">
-        <v>14.97568798640261</v>
+        <v>17.63392227951802</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6301,16 +6237,16 @@
         <v>202218295</v>
       </c>
       <c r="C293">
-        <v>340.22116692979358</v>
+        <v>340.2211669297936</v>
       </c>
       <c r="D293">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E293">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F293">
-        <v>19.5744889314632</v>
+        <v>11.74840951222779</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6321,16 +6257,16 @@
         <v>202218516</v>
       </c>
       <c r="C294">
-        <v>939.92546329275342</v>
+        <v>939.9254632927534</v>
       </c>
       <c r="D294">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E294">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F294">
-        <v>17.633922279518021</v>
+        <v>12.85194181521306</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6341,16 +6277,16 @@
         <v>202218676</v>
       </c>
       <c r="C295">
-        <v>538.74331436795978</v>
+        <v>538.7433143679598</v>
       </c>
       <c r="D295">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E295">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F295">
-        <v>13.31107679197914</v>
+        <v>13.74318180936679</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6361,16 +6297,16 @@
         <v>202218714</v>
       </c>
       <c r="C296">
-        <v>628.07908291319586</v>
+        <v>628.0790829131959</v>
       </c>
       <c r="D296">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E296">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F296">
-        <v>15.911597819531011</v>
+        <v>12.59621752094893</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6381,16 +6317,16 @@
         <v>202218787</v>
       </c>
       <c r="C297">
-        <v>558.94524057961576</v>
+        <v>558.9452405796158</v>
       </c>
       <c r="D297">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E297">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F297">
-        <v>15.17886013440779</v>
+        <v>16.69050633632375</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6404,13 +6340,13 @@
         <v>555.8374306495682</v>
       </c>
       <c r="D298">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E298">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F298">
-        <v>15.600904856363989</v>
+        <v>14.44580965086871</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6424,13 +6360,13 @@
         <v>670.7202110286288</v>
       </c>
       <c r="D299">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E299">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F299">
-        <v>17.15996857947253</v>
+        <v>15.43152192450714</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6441,16 +6377,16 @@
         <v>202219691</v>
       </c>
       <c r="C300">
-        <v>406.22855450917461</v>
+        <v>406.2285545091746</v>
       </c>
       <c r="D300">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E300">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F300">
-        <v>12.50730917687887</v>
+        <v>12.54868474298978</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6461,20 +6397,19 @@
         <v>202219789</v>
       </c>
       <c r="C301">
-        <v>636.18978301437198</v>
+        <v>636.189783014372</v>
       </c>
       <c r="D301">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E301">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F301">
-        <v>16.816922799769479</v>
+        <v>14.36619219743589</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lab5/lab5_student_data.xlsx
+++ b/lab5/lab5_student_data.xlsx
@@ -426,7 +426,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>12.64158058729075</v>
+        <v>25.28316117458151</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -446,7 +446,7 @@
         <v>19</v>
       </c>
       <c r="F3">
-        <v>12.79728415615544</v>
+        <v>25.59456831231088</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -466,7 +466,7 @@
         <v>19</v>
       </c>
       <c r="F4">
-        <v>10.66165007753535</v>
+        <v>21.32330015507069</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -486,7 +486,7 @@
         <v>17</v>
       </c>
       <c r="F5">
-        <v>19.5744889314632</v>
+        <v>39.14897786292641</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -506,7 +506,7 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>14.57582793537833</v>
+        <v>29.15165587075667</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="F7">
-        <v>19.10695045005495</v>
+        <v>38.21390090010991</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -546,7 +546,7 @@
         <v>21</v>
       </c>
       <c r="F8">
-        <v>15.65550269508299</v>
+        <v>31.31100539016598</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -566,7 +566,7 @@
         <v>21</v>
       </c>
       <c r="F9">
-        <v>14.11630442802261</v>
+        <v>28.23260885604521</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -586,7 +586,7 @@
         <v>19</v>
       </c>
       <c r="F10">
-        <v>14.60924625634064</v>
+        <v>29.21849251268127</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -606,7 +606,7 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>12.21271279414542</v>
+        <v>14.21271279414542</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -626,7 +626,7 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>14.90019781499613</v>
+        <v>16.90019781499613</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -646,7 +646,7 @@
         <v>22</v>
       </c>
       <c r="F13">
-        <v>12.36126663835429</v>
+        <v>24.72253327670859</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -666,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>15.28598199067626</v>
+        <v>30.57196398135252</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -686,7 +686,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>15.61549246878218</v>
+        <v>31.23098493756436</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -706,7 +706,7 @@
         <v>19</v>
       </c>
       <c r="F16">
-        <v>12.24759207007479</v>
+        <v>24.49518414014959</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -726,7 +726,7 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>14.92809549470665</v>
+        <v>29.85619098941331</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -746,7 +746,7 @@
         <v>23</v>
       </c>
       <c r="F18">
-        <v>13.63099378070638</v>
+        <v>27.26198756141276</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -766,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="F19">
-        <v>15.2288751545647</v>
+        <v>30.45775030912939</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -786,7 +786,7 @@
         <v>22</v>
       </c>
       <c r="F20">
-        <v>13.43598902012187</v>
+        <v>26.87197804024374</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -806,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>12.48128303794812</v>
+        <v>24.96256607589623</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -826,7 +826,7 @@
         <v>16</v>
       </c>
       <c r="F22">
-        <v>14.32097311100365</v>
+        <v>28.64194622200729</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -846,7 +846,7 @@
         <v>16</v>
       </c>
       <c r="F23">
-        <v>15.17886013440779</v>
+        <v>30.35772026881558</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -866,7 +866,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>15.97918211563798</v>
+        <v>31.95836423127597</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -886,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <v>12.78500460948205</v>
+        <v>25.57000921896411</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -906,7 +906,7 @@
         <v>17</v>
       </c>
       <c r="F26">
-        <v>12.88652821821939</v>
+        <v>25.77305643643879</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -926,7 +926,7 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>17.95173823931248</v>
+        <v>35.90347647862495</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -946,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>13.9333524822132</v>
+        <v>27.8667049644264</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -966,7 +966,7 @@
         <v>17</v>
       </c>
       <c r="F29">
-        <v>15.25852162506113</v>
+        <v>30.51704325012227</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -986,7 +986,7 @@
         <v>23</v>
       </c>
       <c r="F30">
-        <v>15.13457405595029</v>
+        <v>30.26914811190058</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1006,7 +1006,7 @@
         <v>18</v>
       </c>
       <c r="F31">
-        <v>16.93242871726342</v>
+        <v>33.86485743452685</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1026,7 +1026,7 @@
         <v>21</v>
       </c>
       <c r="F32">
-        <v>15.49427226272797</v>
+        <v>30.98854452545593</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1046,7 +1046,7 @@
         <v>25</v>
       </c>
       <c r="F33">
-        <v>15.95233419114688</v>
+        <v>31.90466838229377</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1066,7 +1066,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>16.22235174768976</v>
+        <v>32.44470349537952</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1086,7 +1086,7 @@
         <v>23</v>
       </c>
       <c r="F35">
-        <v>12.91457518366051</v>
+        <v>25.82915036732102</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1106,7 +1106,7 @@
         <v>17</v>
       </c>
       <c r="F36">
-        <v>13.77118179355928</v>
+        <v>27.54236358711855</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1126,7 +1126,7 @@
         <v>18</v>
       </c>
       <c r="F37">
-        <v>16.92295528222361</v>
+        <v>33.84591056444722</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1146,7 +1146,7 @@
         <v>21</v>
       </c>
       <c r="F38">
-        <v>18.1253036712901</v>
+        <v>36.2506073425802</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1166,7 +1166,7 @@
         <v>19</v>
       </c>
       <c r="F39">
-        <v>14.61409988717504</v>
+        <v>29.22819977435007</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1186,7 +1186,7 @@
         <v>33</v>
       </c>
       <c r="F40">
-        <v>11.40929779155368</v>
+        <v>13.40929779155368</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1206,7 +1206,7 @@
         <v>17</v>
       </c>
       <c r="F41">
-        <v>16.68406148173267</v>
+        <v>33.36812296346535</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>17</v>
       </c>
       <c r="F42">
-        <v>14.83720624256284</v>
+        <v>29.67441248512567</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>18</v>
       </c>
       <c r="F43">
-        <v>15.60090485636399</v>
+        <v>31.20180971272798</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>19</v>
       </c>
       <c r="F44">
-        <v>14.45186781136583</v>
+        <v>28.90373562273166</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>20</v>
       </c>
       <c r="F45">
-        <v>18.7047240994094</v>
+        <v>37.40944819881881</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>19</v>
       </c>
       <c r="F46">
-        <v>15.83763559107462</v>
+        <v>31.67527118214924</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>19</v>
       </c>
       <c r="F47">
-        <v>13.34614942957308</v>
+        <v>26.69229885914616</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>18</v>
       </c>
       <c r="F48">
-        <v>16.06695405617901</v>
+        <v>32.13390811235803</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>15</v>
       </c>
       <c r="F49">
-        <v>16.2542081355473</v>
+        <v>32.5084162710946</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>17</v>
       </c>
       <c r="F50">
-        <v>13.78162148602348</v>
+        <v>27.56324297204696</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>22</v>
       </c>
       <c r="F51">
-        <v>15.52337898341105</v>
+        <v>31.0467579668221</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="F52">
-        <v>14.62725614960803</v>
+        <v>29.25451229921606</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>20</v>
       </c>
       <c r="F53">
-        <v>13.77841449168812</v>
+        <v>27.55682898337623</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>19</v>
       </c>
       <c r="F54">
-        <v>15.44620976715637</v>
+        <v>30.89241953431275</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>40</v>
       </c>
       <c r="F55">
-        <v>12.27728000412399</v>
+        <v>14.27728000412399</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>18</v>
       </c>
       <c r="F56">
-        <v>13.81887633858429</v>
+        <v>27.63775267716858</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>14</v>
       </c>
       <c r="F57">
-        <v>14.48534926997267</v>
+        <v>28.97069853994533</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>18</v>
       </c>
       <c r="F58">
-        <v>15.72567161904313</v>
+        <v>31.45134323808626</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>19</v>
       </c>
       <c r="F59">
-        <v>11.90224093495572</v>
+        <v>23.80448186991145</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>21</v>
       </c>
       <c r="F60">
-        <v>13.18241826647914</v>
+        <v>26.36483653295827</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>17</v>
       </c>
       <c r="F61">
-        <v>12.99982194212095</v>
+        <v>25.9996438842419</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>20</v>
       </c>
       <c r="F62">
-        <v>14.14955549280967</v>
+        <v>28.29911098561934</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>18</v>
       </c>
       <c r="F63">
-        <v>9.718605485841135</v>
+        <v>19.43721097168227</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>16</v>
       </c>
       <c r="F64">
-        <v>14.63187296152329</v>
+        <v>29.26374592304659</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>18</v>
       </c>
       <c r="F65">
-        <v>13.08696442948798</v>
+        <v>26.17392885897596</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>20</v>
       </c>
       <c r="F66">
-        <v>16.51404223398259</v>
+        <v>33.02808446796518</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>16</v>
       </c>
       <c r="F67">
-        <v>12.89351036810506</v>
+        <v>25.78702073621012</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>15</v>
       </c>
       <c r="F68">
-        <v>18.01106654093595</v>
+        <v>36.02213308187189</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>16</v>
       </c>
       <c r="F69">
-        <v>15.82182632410127</v>
+        <v>31.64365264820254</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>19</v>
       </c>
       <c r="F70">
-        <v>14.25510181457405</v>
+        <v>28.51020362914811</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>20</v>
       </c>
       <c r="F71">
-        <v>15.64086887822848</v>
+        <v>31.28173775645697</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>18</v>
       </c>
       <c r="F72">
-        <v>20.34614240223024</v>
+        <v>40.69228480446048</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>24</v>
       </c>
       <c r="F73">
-        <v>12.69140924874718</v>
+        <v>25.38281849749437</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>20</v>
       </c>
       <c r="F74">
-        <v>14.67108197448686</v>
+        <v>29.34216394897372</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>19</v>
       </c>
       <c r="F75">
-        <v>11.55345003576902</v>
+        <v>23.10690007153804</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>20</v>
       </c>
       <c r="F76">
-        <v>13.4433358054897</v>
+        <v>26.8866716109794</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>20</v>
       </c>
       <c r="F77">
-        <v>14.358950149012</v>
+        <v>28.717900298024</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>22</v>
       </c>
       <c r="F78">
-        <v>15.26877648036187</v>
+        <v>30.53755296072374</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>23</v>
       </c>
       <c r="F79">
-        <v>16.89245965337342</v>
+        <v>33.78491930674684</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>20</v>
       </c>
       <c r="F80">
-        <v>11.46067731795548</v>
+        <v>22.92135463591095</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>21</v>
       </c>
       <c r="F81">
-        <v>17.31733863358531</v>
+        <v>34.63467726717062</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>21</v>
       </c>
       <c r="F82">
-        <v>19.28645691796777</v>
+        <v>38.57291383593554</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>19</v>
       </c>
       <c r="F83">
-        <v>15.03838645216362</v>
+        <v>30.07677290432723</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>18</v>
       </c>
       <c r="F84">
-        <v>15.19831173978159</v>
+        <v>30.39662347956319</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>18</v>
       </c>
       <c r="F85">
-        <v>14.31120235003939</v>
+        <v>28.62240470007877</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>16</v>
       </c>
       <c r="F86">
-        <v>14.96635648007299</v>
+        <v>29.93271296014598</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>21</v>
       </c>
       <c r="F87">
-        <v>17.63482479554326</v>
+        <v>35.26964959108653</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="F88">
-        <v>16.70015829021331</v>
+        <v>33.40031658042662</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>20</v>
       </c>
       <c r="F89">
-        <v>16.82559322276783</v>
+        <v>33.65118644553566</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>20</v>
       </c>
       <c r="F90">
-        <v>11.84570596682633</v>
+        <v>23.69141193365266</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="F91">
-        <v>14.45466599959657</v>
+        <v>28.90933199919314</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>18</v>
       </c>
       <c r="F92">
-        <v>13.23742263413067</v>
+        <v>26.47484526826133</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>19</v>
       </c>
       <c r="F93">
-        <v>13.49779588074062</v>
+        <v>26.99559176148124</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>20</v>
       </c>
       <c r="F94">
-        <v>10.59117553485769</v>
+        <v>21.18235106971537</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>14.60873713521391</v>
+        <v>29.21747427042783</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>20</v>
       </c>
       <c r="F96">
-        <v>15.38985704978795</v>
+        <v>30.77971409957591</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>21</v>
       </c>
       <c r="F97">
-        <v>16.51165305848794</v>
+        <v>33.02330611697587</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>21</v>
       </c>
       <c r="F98">
-        <v>12.88368453097123</v>
+        <v>25.76736906194246</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>21</v>
       </c>
       <c r="F99">
-        <v>16.20001537359844</v>
+        <v>32.40003074719687</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>22</v>
       </c>
       <c r="F100">
-        <v>18.1963991911508</v>
+        <v>36.39279838230161</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>19</v>
       </c>
       <c r="F101">
-        <v>12.50595984748534</v>
+        <v>25.01191969497068</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>14</v>
       </c>
       <c r="F102">
-        <v>15.78160096137146</v>
+        <v>31.56320192274293</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>16</v>
       </c>
       <c r="F103">
-        <v>12.28695476328698</v>
+        <v>24.57390952657396</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>18</v>
       </c>
       <c r="F104">
-        <v>14.67030343828581</v>
+        <v>29.34060687657162</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>17</v>
       </c>
       <c r="F105">
-        <v>14.53402952983583</v>
+        <v>29.06805905967165</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>17</v>
       </c>
       <c r="F106">
-        <v>11.88697433311684</v>
+        <v>23.77394866623368</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>17</v>
       </c>
       <c r="F107">
-        <v>15.67077354487207</v>
+        <v>31.34154708974413</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>19</v>
       </c>
       <c r="F108">
-        <v>11.87763988801797</v>
+        <v>23.75527977603595</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>20</v>
       </c>
       <c r="F109">
-        <v>16.51553396080497</v>
+        <v>33.03106792160993</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>27</v>
       </c>
       <c r="F110">
-        <v>9.676547406378262</v>
+        <v>11.67654740637826</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>16</v>
       </c>
       <c r="F111">
-        <v>17.00124213109766</v>
+        <v>34.00248426219532</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>21</v>
       </c>
       <c r="F112">
-        <v>12.81912173518576</v>
+        <v>25.63824347037153</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>20</v>
       </c>
       <c r="F113">
-        <v>14.07187134335428</v>
+        <v>28.14374268670856</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>19</v>
       </c>
       <c r="F114">
-        <v>13.66860726224965</v>
+        <v>27.3372145244993</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>19</v>
       </c>
       <c r="F115">
-        <v>15.9967597098734</v>
+        <v>31.9935194197468</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>21</v>
       </c>
       <c r="F116">
-        <v>20.27003729475725</v>
+        <v>40.5400745895145</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>15</v>
       </c>
       <c r="F117">
-        <v>18.09340186143402</v>
+        <v>36.18680372286805</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>21</v>
       </c>
       <c r="F118">
-        <v>16.06376307018228</v>
+        <v>32.12752614036456</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>21</v>
       </c>
       <c r="F119">
-        <v>15.72887395904674</v>
+        <v>31.45774791809348</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>18</v>
       </c>
       <c r="F120">
-        <v>16.12386110871228</v>
+        <v>32.24772221742457</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>22</v>
       </c>
       <c r="F121">
-        <v>15.31080924907295</v>
+        <v>30.6216184981459</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>19</v>
       </c>
       <c r="F122">
-        <v>12.36661377344939</v>
+        <v>24.73322754689878</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>16</v>
       </c>
       <c r="F123">
-        <v>14.27986308770912</v>
+        <v>28.55972617541825</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>24</v>
       </c>
       <c r="F124">
-        <v>15.16673988948896</v>
+        <v>30.33347977897793</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>21</v>
       </c>
       <c r="F125">
-        <v>11.95654623119494</v>
+        <v>23.91309246238988</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>22</v>
       </c>
       <c r="F126">
-        <v>15.3696954596592</v>
+        <v>30.73939091931841</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>17</v>
       </c>
       <c r="F127">
-        <v>13.73863648636458</v>
+        <v>27.47727297272916</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>17</v>
       </c>
       <c r="F128">
-        <v>15.12977794103787</v>
+        <v>30.25955588207575</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>13</v>
       </c>
       <c r="F129">
-        <v>13.36454183821634</v>
+        <v>26.72908367643268</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>22</v>
       </c>
       <c r="F130">
-        <v>12.44135891630279</v>
+        <v>24.88271783260558</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>18</v>
       </c>
       <c r="F131">
-        <v>14.96981686763549</v>
+        <v>29.93963373527097</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>18</v>
       </c>
       <c r="F132">
-        <v>15.54610197446311</v>
+        <v>31.09220394892622</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>20</v>
       </c>
       <c r="F133">
-        <v>15.19140637278005</v>
+        <v>30.3828127455601</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>17</v>
       </c>
       <c r="F134">
-        <v>16.99116426690577</v>
+        <v>33.98232853381154</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>21</v>
       </c>
       <c r="F135">
-        <v>9.928601901012652</v>
+        <v>19.8572038020253</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>17</v>
       </c>
       <c r="F136">
-        <v>13.84852071218049</v>
+        <v>27.69704142436099</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>18</v>
       </c>
       <c r="F137">
-        <v>11.84187174174962</v>
+        <v>23.68374348349924</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>15</v>
       </c>
       <c r="F138">
-        <v>16.57599269324182</v>
+        <v>33.15198538648364</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>17</v>
       </c>
       <c r="F139">
-        <v>18.477169302205</v>
+        <v>36.95433860441</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>13</v>
       </c>
       <c r="F140">
-        <v>12.6075907541713</v>
+        <v>25.21518150834261</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="F141">
-        <v>9.646583556259698</v>
+        <v>11.6465835562597</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>21</v>
       </c>
       <c r="F142">
-        <v>13.81640060362647</v>
+        <v>27.63280120725295</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>17</v>
       </c>
       <c r="F143">
-        <v>13.9129589698054</v>
+        <v>27.8259179396108</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>20</v>
       </c>
       <c r="F144">
-        <v>15.47886394622442</v>
+        <v>30.95772789244884</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>17</v>
       </c>
       <c r="F145">
-        <v>16.63016640586801</v>
+        <v>33.26033281173603</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>19</v>
       </c>
       <c r="F146">
-        <v>15.52251850825381</v>
+        <v>31.04503701650761</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>18</v>
       </c>
       <c r="F147">
-        <v>15.6330564634348</v>
+        <v>31.2661129268696</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>28</v>
       </c>
       <c r="F148">
-        <v>12.50730917687887</v>
+        <v>25.01461835375774</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>26</v>
       </c>
       <c r="F149">
-        <v>16.16402353532268</v>
+        <v>32.32804707064537</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>17</v>
       </c>
       <c r="F150">
-        <v>13.52365963298195</v>
+        <v>27.0473192659639</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>19</v>
       </c>
       <c r="F151">
-        <v>10.7166736439715</v>
+        <v>21.433347287943</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>18</v>
       </c>
       <c r="F152">
-        <v>13.18532186618167</v>
+        <v>26.37064373236333</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>17</v>
       </c>
       <c r="F153">
-        <v>15.03619842092422</v>
+        <v>30.07239684184843</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>20</v>
       </c>
       <c r="F154">
-        <v>16.45912440212965</v>
+        <v>32.91824880425931</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>16</v>
       </c>
       <c r="F155">
-        <v>15.46357317959548</v>
+        <v>30.92714635919097</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>22</v>
       </c>
       <c r="F156">
-        <v>13.18369884349534</v>
+        <v>26.36739768699067</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>21</v>
       </c>
       <c r="F157">
-        <v>12.69002754010604</v>
+        <v>25.38005508021208</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>30</v>
       </c>
       <c r="F158">
-        <v>8.641860300337115</v>
+        <v>10.64186030033711</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>19</v>
       </c>
       <c r="F159">
-        <v>16.21944818582402</v>
+        <v>32.43889637164805</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>24</v>
       </c>
       <c r="F160">
-        <v>15.35793070932903</v>
+        <v>30.71586141865806</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>19</v>
       </c>
       <c r="F161">
-        <v>11.24958111866068</v>
+        <v>22.49916223732135</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>24</v>
       </c>
       <c r="F162">
-        <v>15.15245521437337</v>
+        <v>30.30491042874673</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>20</v>
       </c>
       <c r="F163">
-        <v>12.16077253898169</v>
+        <v>24.32154507796337</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>40</v>
       </c>
       <c r="F164">
-        <v>9.144837654337207</v>
+        <v>11.14483765433721</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>20</v>
       </c>
       <c r="F165">
-        <v>17.27840004694996</v>
+        <v>34.55680009389992</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>18</v>
       </c>
       <c r="F166">
-        <v>13.23680283512828</v>
+        <v>26.47360567025657</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>21</v>
       </c>
       <c r="F167">
-        <v>16.21217154405144</v>
+        <v>32.42434308810287</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>23</v>
       </c>
       <c r="F168">
-        <v>14.57850215488256</v>
+        <v>29.15700430976512</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>24</v>
       </c>
       <c r="F169">
-        <v>11.69283413883461</v>
+        <v>23.38566827766923</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>19</v>
       </c>
       <c r="F170">
-        <v>14.76534609018239</v>
+        <v>29.53069218036477</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>34</v>
       </c>
       <c r="F171">
-        <v>11.66316179305549</v>
+        <v>13.66316179305549</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>16</v>
       </c>
       <c r="F172">
-        <v>18.27853365634984</v>
+        <v>36.55706731269969</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>26</v>
       </c>
       <c r="F173">
-        <v>13.02450704793549</v>
+        <v>26.04901409587097</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>33</v>
       </c>
       <c r="F174">
-        <v>7.707395404132037</v>
+        <v>9.707395404132036</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>24</v>
       </c>
       <c r="F175">
-        <v>17.39142260410415</v>
+        <v>34.7828452082083</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>17</v>
       </c>
       <c r="F176">
-        <v>17.37830296560346</v>
+        <v>34.75660593120691</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>16</v>
       </c>
       <c r="F177">
-        <v>14.92560688284919</v>
+        <v>29.85121376569838</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>27</v>
       </c>
       <c r="F178">
-        <v>14.17008316016298</v>
+        <v>28.34016632032596</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>21</v>
       </c>
       <c r="F179">
-        <v>14.77903878217445</v>
+        <v>29.5580775643489</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>23</v>
       </c>
       <c r="F180">
-        <v>16.08928492700951</v>
+        <v>32.17856985401902</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>19</v>
       </c>
       <c r="F181">
-        <v>15.11496519540995</v>
+        <v>30.22993039081991</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>31</v>
       </c>
       <c r="F182">
-        <v>9.906796679120893</v>
+        <v>11.90679667912089</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>20</v>
       </c>
       <c r="F183">
-        <v>14.98157486482129</v>
+        <v>29.96314972964258</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>17</v>
       </c>
       <c r="F184">
-        <v>11.84941970735711</v>
+        <v>23.69883941471421</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>22</v>
       </c>
       <c r="F185">
-        <v>15.53017103584396</v>
+        <v>31.06034207168793</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>15</v>
       </c>
       <c r="F186">
-        <v>14.53719050412301</v>
+        <v>29.07438100824602</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>17</v>
       </c>
       <c r="F187">
-        <v>14.84430382539673</v>
+        <v>29.68860765079345</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>20</v>
       </c>
       <c r="F188">
-        <v>14.37987258984782</v>
+        <v>28.75974517969563</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>18</v>
       </c>
       <c r="F189">
-        <v>18.40557089811526</v>
+        <v>36.81114179623052</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>16</v>
       </c>
       <c r="F190">
-        <v>16.71485516824221</v>
+        <v>33.42971033648443</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>21</v>
       </c>
       <c r="F191">
-        <v>15.60335191195478</v>
+        <v>31.20670382390957</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>19</v>
       </c>
       <c r="F192">
-        <v>13.8524940236967</v>
+        <v>27.70498804739341</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>19</v>
       </c>
       <c r="F193">
-        <v>15.91159781953101</v>
+        <v>31.82319563906201</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>22</v>
       </c>
       <c r="F194">
-        <v>15.49932192951261</v>
+        <v>30.99864385902521</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>19</v>
       </c>
       <c r="F195">
-        <v>14.06773462679699</v>
+        <v>28.13546925359398</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>20</v>
       </c>
       <c r="F196">
-        <v>13.57609738950242</v>
+        <v>27.15219477900483</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="F197">
-        <v>13.37702115095222</v>
+        <v>26.75404230190443</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>14</v>
       </c>
       <c r="F198">
-        <v>16.28499027844789</v>
+        <v>32.56998055689577</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>20</v>
       </c>
       <c r="F199">
-        <v>15.97681196125412</v>
+        <v>31.95362392250823</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>20</v>
       </c>
       <c r="F200">
-        <v>13.5262152180609</v>
+        <v>27.0524304361218</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>14</v>
       </c>
       <c r="F201">
-        <v>21.59708104656157</v>
+        <v>43.19416209312314</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>18</v>
       </c>
       <c r="F202">
-        <v>17.64291388175858</v>
+        <v>35.28582776351717</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>19</v>
       </c>
       <c r="F203">
-        <v>15.93966258711773</v>
+        <v>31.87932517423547</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>17</v>
       </c>
       <c r="F204">
-        <v>14.29467906320959</v>
+        <v>28.58935812641917</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>18</v>
       </c>
       <c r="F205">
-        <v>14.22813706742412</v>
+        <v>28.45627413484823</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>18</v>
       </c>
       <c r="F206">
-        <v>15.25785352532592</v>
+        <v>30.51570705065184</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>23</v>
       </c>
       <c r="F207">
-        <v>15.55134680723225</v>
+        <v>31.1026936144645</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>18</v>
       </c>
       <c r="F208">
-        <v>13.87281845240612</v>
+        <v>27.74563690481224</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>20</v>
       </c>
       <c r="F209">
-        <v>14.31347229390052</v>
+        <v>28.62694458780105</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>18</v>
       </c>
       <c r="F210">
-        <v>15.51887167002807</v>
+        <v>31.03774334005614</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>19</v>
       </c>
       <c r="F211">
-        <v>16.81478998677191</v>
+        <v>33.62957997354381</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>22</v>
       </c>
       <c r="F212">
-        <v>16.84015719860546</v>
+        <v>33.68031439721091</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>18</v>
       </c>
       <c r="F213">
-        <v>14.08710889889283</v>
+        <v>28.17421779778565</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>22</v>
       </c>
       <c r="F214">
-        <v>14.97568798640261</v>
+        <v>29.95137597280523</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>19</v>
       </c>
       <c r="F215">
-        <v>14.00432020692423</v>
+        <v>28.00864041384847</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>24</v>
       </c>
       <c r="F216">
-        <v>11.16639317823887</v>
+        <v>22.33278635647774</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>21</v>
       </c>
       <c r="F217">
-        <v>16.03001295049537</v>
+        <v>32.06002590099073</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>22</v>
       </c>
       <c r="F218">
-        <v>12.23907621026106</v>
+        <v>24.47815242052213</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>21</v>
       </c>
       <c r="F219">
-        <v>15.08116696185505</v>
+        <v>30.1623339237101</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>13</v>
       </c>
       <c r="F220">
-        <v>16.64759020979643</v>
+        <v>33.29518041959285</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>14</v>
       </c>
       <c r="F221">
-        <v>18.23807647123153</v>
+        <v>36.47615294246306</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>18</v>
       </c>
       <c r="F222">
-        <v>13.03700385672983</v>
+        <v>26.07400771345966</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>26</v>
       </c>
       <c r="F223">
-        <v>16.81692279976948</v>
+        <v>33.63384559953896</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>22</v>
       </c>
       <c r="F224">
-        <v>15.15021468745558</v>
+        <v>30.30042937491117</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>16</v>
       </c>
       <c r="F225">
-        <v>13.31107679197914</v>
+        <v>26.62215358395828</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>18</v>
       </c>
       <c r="F226">
-        <v>17.03379228006032</v>
+        <v>34.06758456012064</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>17</v>
       </c>
       <c r="F227">
-        <v>16.92133111492435</v>
+        <v>33.84266222984871</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>21</v>
       </c>
       <c r="F228">
-        <v>12.4345458622301</v>
+        <v>24.8690917244602</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>20</v>
       </c>
       <c r="F229">
-        <v>12.20827482631989</v>
+        <v>24.41654965263977</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>16</v>
       </c>
       <c r="F230">
-        <v>12.82099240671041</v>
+        <v>25.64198481342081</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>23</v>
       </c>
       <c r="F231">
-        <v>16.24176016396845</v>
+        <v>32.48352032793689</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>38</v>
       </c>
       <c r="F232">
-        <v>12.37005224493461</v>
+        <v>14.37005224493461</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>19</v>
       </c>
       <c r="F233">
-        <v>14.42511613827328</v>
+        <v>28.85023227654656</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>20</v>
       </c>
       <c r="F234">
-        <v>16.80703642934245</v>
+        <v>33.6140728586849</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>21</v>
       </c>
       <c r="F235">
-        <v>13.30154907616214</v>
+        <v>26.60309815232428</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>15</v>
       </c>
       <c r="F236">
-        <v>14.39081515536904</v>
+        <v>28.78163031073809</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>21</v>
       </c>
       <c r="F237">
-        <v>15.77555198525041</v>
+        <v>31.55110397050082</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>21</v>
       </c>
       <c r="F238">
-        <v>19.01758880399975</v>
+        <v>38.0351776079995</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>47</v>
       </c>
       <c r="F239">
-        <v>12.52544974985999</v>
+        <v>14.52544974985999</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>18</v>
       </c>
       <c r="F240">
-        <v>12.23340701765082</v>
+        <v>24.46681403530163</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>21</v>
       </c>
       <c r="F241">
-        <v>14.74138629797035</v>
+        <v>29.48277259594071</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>25</v>
       </c>
       <c r="F242">
-        <v>12.36727690471219</v>
+        <v>24.73455380942439</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>18</v>
       </c>
       <c r="F243">
-        <v>17.15996857947253</v>
+        <v>34.31993715894507</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>22</v>
       </c>
       <c r="F244">
-        <v>15.19119457901758</v>
+        <v>30.38238915803516</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>19</v>
       </c>
       <c r="F245">
-        <v>16.24528941383099</v>
+        <v>32.49057882766198</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>19</v>
       </c>
       <c r="F246">
-        <v>12.58883868199204</v>
+        <v>25.17767736398408</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>19</v>
       </c>
       <c r="F247">
-        <v>12.86159373081907</v>
+        <v>25.72318746163813</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>21</v>
       </c>
       <c r="F248">
-        <v>16.04233257950131</v>
+        <v>32.08466515900262</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>18</v>
       </c>
       <c r="F249">
-        <v>15.89140970460178</v>
+        <v>31.78281940920357</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>17</v>
       </c>
       <c r="F250">
-        <v>18.61931389604389</v>
+        <v>37.23862779208778</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>20</v>
       </c>
       <c r="F251">
-        <v>12.59653546772356</v>
+        <v>25.19307093544713</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>20</v>
       </c>
       <c r="F252">
-        <v>12.70655687696803</v>
+        <v>25.41311375393606</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>21</v>
       </c>
       <c r="F253">
-        <v>16.10420610132986</v>
+        <v>32.20841220265972</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>15</v>
       </c>
       <c r="F254">
-        <v>15.1425000876645</v>
+        <v>30.28500017532899</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>21</v>
       </c>
       <c r="F255">
-        <v>17.5903663565181</v>
+        <v>35.1807327130362</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>22</v>
       </c>
       <c r="F256">
-        <v>12.82533055000557</v>
+        <v>25.65066110001115</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>44</v>
       </c>
       <c r="F257">
-        <v>9.355035259065412</v>
+        <v>11.35503525906541</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>18</v>
       </c>
       <c r="F258">
-        <v>10.88904767021709</v>
+        <v>21.77809534043417</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>19</v>
       </c>
       <c r="F259">
-        <v>12.73266971191583</v>
+        <v>25.46533942383166</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>23</v>
       </c>
       <c r="F260">
-        <v>11.61920437803369</v>
+        <v>13.61920437803369</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>21</v>
       </c>
       <c r="F261">
-        <v>15.32792997627042</v>
+        <v>30.65585995254084</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>15</v>
       </c>
       <c r="F262">
-        <v>15.48227237099009</v>
+        <v>30.96454474198018</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>21</v>
       </c>
       <c r="F263">
-        <v>16.13743968338002</v>
+        <v>32.27487936676003</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>16</v>
       </c>
       <c r="F264">
-        <v>14.48860817061035</v>
+        <v>28.9772163412207</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>25</v>
       </c>
       <c r="F265">
-        <v>15.58743920655722</v>
+        <v>31.17487841311444</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>20</v>
       </c>
       <c r="F266">
-        <v>14.20987275132858</v>
+        <v>28.41974550265716</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>17</v>
       </c>
       <c r="F267">
-        <v>13.2307684161549</v>
+        <v>26.46153683230979</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>21</v>
       </c>
       <c r="F268">
-        <v>17.37374784531677</v>
+        <v>34.74749569063355</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>21</v>
       </c>
       <c r="F269">
-        <v>12.00124630110524</v>
+        <v>24.00249260221049</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>18</v>
       </c>
       <c r="F270">
-        <v>12.83834235380749</v>
+        <v>25.67668470761497</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>27</v>
       </c>
       <c r="F271">
-        <v>10.28495359252742</v>
+        <v>20.56990718505483</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>23</v>
       </c>
       <c r="F272">
-        <v>12.46620720863395</v>
+        <v>24.93241441726789</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>26</v>
       </c>
       <c r="F273">
-        <v>15.60871000383714</v>
+        <v>31.21742000767427</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>20</v>
       </c>
       <c r="F274">
-        <v>15.43527759505419</v>
+        <v>30.87055519010838</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>22</v>
       </c>
       <c r="F275">
-        <v>13.20059516275675</v>
+        <v>26.40119032551351</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>17</v>
       </c>
       <c r="F276">
-        <v>15.89883898466832</v>
+        <v>31.79767796933664</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="F277">
-        <v>15.31227983672774</v>
+        <v>30.62455967345548</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>19</v>
       </c>
       <c r="F278">
-        <v>14.14112809733371</v>
+        <v>28.28225619466743</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>16</v>
       </c>
       <c r="F279">
-        <v>13.03903252597825</v>
+        <v>26.0780650519565</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>16</v>
       </c>
       <c r="F280">
-        <v>16.50524047464228</v>
+        <v>33.01048094928456</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>20</v>
       </c>
       <c r="F281">
-        <v>15.74639711833953</v>
+        <v>31.49279423667905</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>15</v>
       </c>
       <c r="F282">
-        <v>16.87189475131959</v>
+        <v>33.74378950263917</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>19</v>
       </c>
       <c r="F283">
-        <v>17.78946930744402</v>
+        <v>35.57893861488804</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>26</v>
       </c>
       <c r="F284">
-        <v>13.83769948617521</v>
+        <v>27.67539897235041</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>29</v>
       </c>
       <c r="F285">
-        <v>16.63634009055854</v>
+        <v>33.27268018111707</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>23</v>
       </c>
       <c r="F286">
-        <v>12.77875307436919</v>
+        <v>25.55750614873838</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>14</v>
       </c>
       <c r="F287">
-        <v>13.48189639543928</v>
+        <v>26.96379279087856</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>24</v>
       </c>
       <c r="F288">
-        <v>14.49921054718431</v>
+        <v>28.99842109436862</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>20</v>
       </c>
       <c r="F289">
-        <v>12.32185404227729</v>
+        <v>24.64370808455459</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>11</v>
       </c>
       <c r="F290">
-        <v>16.12525026112423</v>
+        <v>32.25050052224846</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>20</v>
       </c>
       <c r="F291">
-        <v>17.83167346568032</v>
+        <v>35.66334693136064</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>21</v>
       </c>
       <c r="F292">
-        <v>17.63392227951802</v>
+        <v>35.26784455903604</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>18</v>
       </c>
       <c r="F293">
-        <v>11.74840951222779</v>
+        <v>23.49681902445558</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>24</v>
       </c>
       <c r="F294">
-        <v>12.85194181521306</v>
+        <v>25.70388363042612</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>18</v>
       </c>
       <c r="F295">
-        <v>13.74318180936679</v>
+        <v>27.48636361873358</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>17</v>
       </c>
       <c r="F296">
-        <v>12.59621752094893</v>
+        <v>25.19243504189786</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6326,7 +6326,7 @@
         <v>21</v>
       </c>
       <c r="F297">
-        <v>16.69050633632375</v>
+        <v>33.38101267264749</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6346,7 +6346,7 @@
         <v>22</v>
       </c>
       <c r="F298">
-        <v>14.44580965086871</v>
+        <v>28.89161930173741</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6366,7 +6366,7 @@
         <v>21</v>
       </c>
       <c r="F299">
-        <v>15.43152192450714</v>
+        <v>30.86304384901428</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6386,7 +6386,7 @@
         <v>22</v>
       </c>
       <c r="F300">
-        <v>12.54868474298978</v>
+        <v>25.09736948597957</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6406,7 +6406,7 @@
         <v>20</v>
       </c>
       <c r="F301">
-        <v>14.36619219743589</v>
+        <v>28.73238439487179</v>
       </c>
     </row>
   </sheetData>
